--- a/Prediction/df_evaluation.xlsx
+++ b/Prediction/df_evaluation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="66">
   <si>
     <t>model</t>
   </si>
@@ -52,6 +52,18 @@
     <t>F1_score_weighted</t>
   </si>
   <si>
+    <t>micro_accuracy-others</t>
+  </si>
+  <si>
+    <t>micro_precision-others</t>
+  </si>
+  <si>
+    <t>micro_recall-others</t>
+  </si>
+  <si>
+    <t>micro_F1-others</t>
+  </si>
+  <si>
     <t>accuracy_others</t>
   </si>
   <si>
@@ -100,6 +112,51 @@
     <t>F1_score_angry</t>
   </si>
   <si>
+    <t>LogisticRegression_overall</t>
+  </si>
+  <si>
+    <t>LogisticRegression_delete2nd</t>
+  </si>
+  <si>
+    <t>LogisticRegression_double1st3rd</t>
+  </si>
+  <si>
+    <t>LogisticRegression_time3</t>
+  </si>
+  <si>
+    <t>LogisticRegression_del2big3</t>
+  </si>
+  <si>
+    <t>SVM_overall</t>
+  </si>
+  <si>
+    <t>SVM_delete2nd</t>
+  </si>
+  <si>
+    <t>SVM_double1st3rd</t>
+  </si>
+  <si>
+    <t>SVM_time3</t>
+  </si>
+  <si>
+    <t>SVM_del2big3</t>
+  </si>
+  <si>
+    <t>LogisticRegression_compare_word2vec</t>
+  </si>
+  <si>
+    <t>LogisticRegression_compare_glove</t>
+  </si>
+  <si>
+    <t>SVM_compare_word2vec</t>
+  </si>
+  <si>
+    <t>SVM_compare_glove</t>
+  </si>
+  <si>
+    <t>LogisticRegression</t>
+  </si>
+  <si>
     <t>CNN</t>
   </si>
   <si>
@@ -115,22 +172,46 @@
     <t>GRU</t>
   </si>
   <si>
+    <t>BiLSTM</t>
+  </si>
+  <si>
+    <t>BiGRU</t>
+  </si>
+  <si>
+    <t>BiLSTM_self-attention</t>
+  </si>
+  <si>
+    <t>BiGRU_self-attention</t>
+  </si>
+  <si>
+    <t>test_baseline</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>double13</t>
+  </si>
+  <si>
+    <t>time3_3rd</t>
+  </si>
+  <si>
+    <t>test0</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
     <t>test2</t>
   </si>
   <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
     <t>test5</t>
-  </si>
-  <si>
-    <t>test0</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -488,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:33">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,1607 +660,5471 @@
       <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:33">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>0.866037393356326</v>
+        <v>0.7308041386821564</v>
       </c>
       <c r="E2">
-        <v>0.6340140008879984</v>
+        <v>0.4313550692178437</v>
       </c>
       <c r="F2">
-        <v>0.8151114751080293</v>
+        <v>0.5812925296085736</v>
       </c>
       <c r="G2">
-        <v>0.7029453268684088</v>
+        <v>0.4739106210784344</v>
       </c>
       <c r="H2">
-        <v>0.866037393356326</v>
+        <v>0.7308041386821564</v>
       </c>
       <c r="I2">
-        <v>0.866037393356326</v>
+        <v>0.7308041386821564</v>
       </c>
       <c r="J2">
-        <v>0.866037393356326</v>
+        <v>0.7308041386821565</v>
       </c>
       <c r="K2">
-        <v>0.9006038940781632</v>
+        <v>0.8268135994013133</v>
       </c>
       <c r="L2">
-        <v>0.866037393356326</v>
+        <v>0.7308041386821564</v>
       </c>
       <c r="M2">
-        <v>0.8772801906843399</v>
+        <v>0.7664120382719579</v>
       </c>
       <c r="N2">
-        <v>0.872753675803231</v>
+        <v>0.7161152614727855</v>
       </c>
       <c r="O2">
-        <v>0.967984934086629</v>
+        <v>0.2656441717791411</v>
       </c>
       <c r="P2">
-        <v>0.87919606585418</v>
+        <v>0.5204326923076923</v>
       </c>
       <c r="Q2">
-        <v>0.9214565826330532</v>
+        <v>0.3517465475223396</v>
       </c>
       <c r="R2">
-        <v>0.9473588673080414</v>
+        <v>0.7513160283172989</v>
       </c>
       <c r="S2">
-        <v>0.4926470588235294</v>
+        <v>0.9262696571281258</v>
       </c>
       <c r="T2">
-        <v>0.7077464788732394</v>
+        <v>0.7682274962582852</v>
       </c>
       <c r="U2">
-        <v>0.5809248554913294</v>
+        <v>0.8398784478728378</v>
       </c>
       <c r="V2">
-        <v>0.9611544744962788</v>
+        <v>0.8867308041386821</v>
       </c>
       <c r="W2">
-        <v>0.5463917525773195</v>
+        <v>0.2048611111111111</v>
       </c>
       <c r="X2">
-        <v>0.848</v>
+        <v>0.4154929577464789</v>
       </c>
       <c r="Y2">
-        <v>0.6645768025078369</v>
+        <v>0.2744186046511628</v>
       </c>
       <c r="Z2">
-        <v>0.9508077691051008</v>
+        <v>0.9110546378653113</v>
       </c>
       <c r="AA2">
-        <v>0.5290322580645161</v>
+        <v>0.2609561752988048</v>
       </c>
       <c r="AB2">
-        <v>0.825503355704698</v>
+        <v>0.524</v>
       </c>
       <c r="AC2">
-        <v>0.6448230668414155</v>
+        <v>0.3484042553191489</v>
+      </c>
+      <c r="AD2">
+        <v>0.9125068070430206</v>
+      </c>
+      <c r="AE2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AF2">
+        <v>0.6174496644295302</v>
+      </c>
+      <c r="AG2">
+        <v>0.4329411764705883</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:33">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>0.8716645489199492</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="E3">
-        <v>0.6478287252286767</v>
+        <v>0.4867699888377959</v>
       </c>
       <c r="F3">
-        <v>0.7995481421302078</v>
+        <v>0.6275257390140581</v>
       </c>
       <c r="G3">
-        <v>0.7074547879658459</v>
+        <v>0.5350238026210133</v>
       </c>
       <c r="H3">
-        <v>0.8716645489199492</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="I3">
-        <v>0.8716645489199492</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="J3">
-        <v>0.8716645489199492</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="K3">
-        <v>0.9000288107999971</v>
+        <v>0.8440960903300961</v>
       </c>
       <c r="L3">
-        <v>0.8716645489199492</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="M3">
-        <v>0.8813143808740918</v>
+        <v>0.8081033354014999</v>
       </c>
       <c r="N3">
-        <v>0.8783808313668542</v>
+        <v>0.7739860639628372</v>
       </c>
       <c r="O3">
-        <v>0.9640954366458189</v>
+        <v>0.3423160961398398</v>
       </c>
       <c r="P3">
-        <v>0.889886679495403</v>
+        <v>0.5649038461538461</v>
       </c>
       <c r="Q3">
-        <v>0.9255058928174339</v>
+        <v>0.4263038548752834</v>
       </c>
       <c r="R3">
-        <v>0.9542566709021602</v>
+        <v>0.8023234706843347</v>
       </c>
       <c r="S3">
-        <v>0.5434782608695652</v>
+        <v>0.933752417794971</v>
       </c>
       <c r="T3">
-        <v>0.704225352112676</v>
+        <v>0.825742997648065</v>
       </c>
       <c r="U3">
-        <v>0.6134969325153373</v>
+        <v>0.8764325428344492</v>
       </c>
       <c r="V3">
-        <v>0.9651479397349791</v>
+        <v>0.9183154837538573</v>
       </c>
       <c r="W3">
-        <v>0.5857988165680473</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="X3">
-        <v>0.792</v>
+        <v>0.4436619718309859</v>
       </c>
       <c r="Y3">
-        <v>0.6734693877551021</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="Z3">
-        <v>0.9455436558359048</v>
+        <v>0.9243056816119077</v>
       </c>
       <c r="AA3">
-        <v>0.4979423868312757</v>
+        <v>0.3080459770114943</v>
       </c>
       <c r="AB3">
-        <v>0.8120805369127517</v>
+        <v>0.536</v>
       </c>
       <c r="AC3">
-        <v>0.6173469387755102</v>
+        <v>0.3912408759124088</v>
+      </c>
+      <c r="AD3">
+        <v>0.9277545834089671</v>
+      </c>
+      <c r="AE3">
+        <v>0.4038461538461539</v>
+      </c>
+      <c r="AF3">
+        <v>0.7046979865771812</v>
+      </c>
+      <c r="AG3">
+        <v>0.5134474327628362</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:33">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>0.8300962062080233</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="E4">
-        <v>0.5455345788744732</v>
+        <v>0.4867699888377959</v>
       </c>
       <c r="F4">
-        <v>0.6349578235333482</v>
+        <v>0.6275257390140581</v>
       </c>
       <c r="G4">
-        <v>0.5808755486607809</v>
+        <v>0.5350238026210133</v>
       </c>
       <c r="H4">
-        <v>0.8300962062080233</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="I4">
-        <v>0.8300962062080233</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="J4">
-        <v>0.8300962062080234</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="K4">
-        <v>0.8537635719173906</v>
+        <v>0.8440960903300961</v>
       </c>
       <c r="L4">
-        <v>0.8300962062080233</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="M4">
-        <v>0.8394417083471093</v>
+        <v>0.8081033354014999</v>
       </c>
       <c r="N4">
-        <v>0.8420766019241241</v>
+        <v>0.7739860639628372</v>
       </c>
       <c r="O4">
-        <v>0.9311438278595696</v>
+        <v>0.3423160961398398</v>
       </c>
       <c r="P4">
-        <v>0.8789822535813556</v>
+        <v>0.5649038461538461</v>
       </c>
       <c r="Q4">
-        <v>0.9043114826220854</v>
+        <v>0.4263038548752834</v>
       </c>
       <c r="R4">
-        <v>0.9364675984752223</v>
+        <v>0.8023234706843347</v>
       </c>
       <c r="S4">
-        <v>0.3885135135135135</v>
+        <v>0.933752417794971</v>
       </c>
       <c r="T4">
-        <v>0.4049295774647887</v>
+        <v>0.825742997648065</v>
       </c>
       <c r="U4">
-        <v>0.396551724137931</v>
+        <v>0.8764325428344492</v>
       </c>
       <c r="V4">
-        <v>0.94082410600835</v>
+        <v>0.9183154837538573</v>
       </c>
       <c r="W4">
-        <v>0.3944444444444444</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="X4">
-        <v>0.5679999999999999</v>
+        <v>0.4436619718309859</v>
       </c>
       <c r="Y4">
-        <v>0.4655737704918032</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="Z4">
-        <v>0.94082410600835</v>
+        <v>0.9243056816119077</v>
       </c>
       <c r="AA4">
-        <v>0.4680365296803653</v>
+        <v>0.3080459770114943</v>
       </c>
       <c r="AB4">
-        <v>0.6879194630872483</v>
+        <v>0.536</v>
       </c>
       <c r="AC4">
-        <v>0.5570652173913043</v>
+        <v>0.3912408759124088</v>
+      </c>
+      <c r="AD4">
+        <v>0.9277545834089671</v>
+      </c>
+      <c r="AE4">
+        <v>0.4038461538461539</v>
+      </c>
+      <c r="AF4">
+        <v>0.7046979865771812</v>
+      </c>
+      <c r="AG4">
+        <v>0.5134474327628362</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:33">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>0.8319114176801597</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="E5">
-        <v>0.5517995292453465</v>
+        <v>0.4867699888377959</v>
       </c>
       <c r="F5">
-        <v>0.6377334034614952</v>
+        <v>0.6275257390140581</v>
       </c>
       <c r="G5">
-        <v>0.5860640344976413</v>
+        <v>0.5350238026210133</v>
       </c>
       <c r="H5">
-        <v>0.8319114176801597</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="I5">
-        <v>0.8319114176801597</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="J5">
-        <v>0.8319114176801597</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="K5">
-        <v>0.8541143395604697</v>
+        <v>0.8440960903300961</v>
       </c>
       <c r="L5">
-        <v>0.8319114176801597</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="M5">
-        <v>0.840710047157311</v>
+        <v>0.8081033354014999</v>
       </c>
       <c r="N5">
-        <v>0.8422581230713378</v>
+        <v>0.7739860639628372</v>
       </c>
       <c r="O5">
-        <v>0.9299909665763324</v>
+        <v>0.3423160961398398</v>
       </c>
       <c r="P5">
-        <v>0.8804789394911268</v>
+        <v>0.5649038461538461</v>
       </c>
       <c r="Q5">
-        <v>0.9045579352004393</v>
+        <v>0.4263038548752834</v>
       </c>
       <c r="R5">
-        <v>0.9386458522417862</v>
+        <v>0.8023234706843347</v>
       </c>
       <c r="S5">
-        <v>0.4081632653061225</v>
+        <v>0.933752417794971</v>
       </c>
       <c r="T5">
-        <v>0.4225352112676056</v>
+        <v>0.825742997648065</v>
       </c>
       <c r="U5">
-        <v>0.4152249134948097</v>
+        <v>0.8764325428344492</v>
       </c>
       <c r="V5">
-        <v>0.9417317117444183</v>
+        <v>0.9183154837538573</v>
       </c>
       <c r="W5">
-        <v>0.3988603988603989</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="X5">
-        <v>0.5600000000000001</v>
+        <v>0.4436619718309859</v>
       </c>
       <c r="Y5">
-        <v>0.4658901830282862</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="Z5">
-        <v>0.9411871483027773</v>
+        <v>0.9243056816119077</v>
       </c>
       <c r="AA5">
-        <v>0.4701834862385321</v>
+        <v>0.3080459770114943</v>
       </c>
       <c r="AB5">
-        <v>0.6879194630872483</v>
+        <v>0.536</v>
       </c>
       <c r="AC5">
-        <v>0.55858310626703</v>
+        <v>0.3912408759124088</v>
+      </c>
+      <c r="AD5">
+        <v>0.9277545834089671</v>
+      </c>
+      <c r="AE5">
+        <v>0.4038461538461539</v>
+      </c>
+      <c r="AF5">
+        <v>0.7046979865771812</v>
+      </c>
+      <c r="AG5">
+        <v>0.5134474327628362</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:33">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>0.8375385732437829</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="E6">
-        <v>0.5703008778761726</v>
+        <v>0.4867699888377959</v>
       </c>
       <c r="F6">
-        <v>0.6901783925690745</v>
+        <v>0.6275257390140581</v>
       </c>
       <c r="G6">
-        <v>0.6173861159160334</v>
+        <v>0.5350238026210133</v>
       </c>
       <c r="H6">
-        <v>0.8375385732437829</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="I6">
-        <v>0.8375385732437829</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="J6">
-        <v>0.8375385732437829</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="K6">
-        <v>0.8678193524370026</v>
+        <v>0.8440960903300961</v>
       </c>
       <c r="L6">
-        <v>0.8375385732437829</v>
+        <v>0.7863496097295335</v>
       </c>
       <c r="M6">
-        <v>0.8491095085842543</v>
+        <v>0.8081033354014999</v>
       </c>
       <c r="N6">
-        <v>0.8484298420766019</v>
+        <v>0.7739860639628372</v>
       </c>
       <c r="O6">
-        <v>0.9426267281105991</v>
+        <v>0.3423160961398398</v>
       </c>
       <c r="P6">
-        <v>0.8747060081248663</v>
+        <v>0.5649038461538461</v>
       </c>
       <c r="Q6">
-        <v>0.9073971387379395</v>
+        <v>0.4263038548752834</v>
       </c>
       <c r="R6">
-        <v>0.9411871483027773</v>
+        <v>0.8023234706843347</v>
       </c>
       <c r="S6">
-        <v>0.4421965317919075</v>
+        <v>0.933752417794971</v>
       </c>
       <c r="T6">
-        <v>0.5387323943661971</v>
+        <v>0.825742997648065</v>
       </c>
       <c r="U6">
-        <v>0.4857142857142857</v>
+        <v>0.8764325428344492</v>
       </c>
       <c r="V6">
-        <v>0.9446360500998366</v>
+        <v>0.9183154837538573</v>
       </c>
       <c r="W6">
-        <v>0.4281984334203655</v>
+        <v>0.3014354066985646</v>
       </c>
       <c r="X6">
-        <v>0.656</v>
+        <v>0.4436619718309859</v>
       </c>
       <c r="Y6">
-        <v>0.5181674565560821</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="Z6">
-        <v>0.94082410600835</v>
+        <v>0.9243056816119077</v>
       </c>
       <c r="AA6">
-        <v>0.4681818181818182</v>
+        <v>0.3080459770114943</v>
       </c>
       <c r="AB6">
-        <v>0.6912751677852349</v>
+        <v>0.536</v>
       </c>
       <c r="AC6">
-        <v>0.5582655826558265</v>
+        <v>0.3912408759124088</v>
+      </c>
+      <c r="AD6">
+        <v>0.9277545834089671</v>
+      </c>
+      <c r="AE6">
+        <v>0.4038461538461539</v>
+      </c>
+      <c r="AF6">
+        <v>0.7046979865771812</v>
+      </c>
+      <c r="AG6">
+        <v>0.5134474327628362</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:33">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>0.8310038119440915</v>
+        <v>0.7834452713741151</v>
       </c>
       <c r="E7">
-        <v>0.5454720411330941</v>
+        <v>0.4873037548519608</v>
       </c>
       <c r="F7">
-        <v>0.6205007444321244</v>
+        <v>0.6273931480189885</v>
       </c>
       <c r="G7">
-        <v>0.5758700737227286</v>
+        <v>0.5358374513960804</v>
       </c>
       <c r="H7">
-        <v>0.8310038119440915</v>
+        <v>0.7834452713741151</v>
       </c>
       <c r="I7">
-        <v>0.8310038119440915</v>
+        <v>0.7834452713741151</v>
       </c>
       <c r="J7">
-        <v>0.8310038119440915</v>
+        <v>0.7834452713741151</v>
       </c>
       <c r="K7">
-        <v>0.8506117240132485</v>
+        <v>0.8407371098066684</v>
       </c>
       <c r="L7">
-        <v>0.8310038119440915</v>
+        <v>0.7834452713741151</v>
       </c>
       <c r="M7">
-        <v>0.8389638636874253</v>
+        <v>0.8051563008262659</v>
       </c>
       <c r="N7">
-        <v>0.8422581230713378</v>
+        <v>0.7736153432514787</v>
       </c>
       <c r="O7">
-        <v>0.927097353073127</v>
+        <v>0.3428154631655726</v>
       </c>
       <c r="P7">
-        <v>0.8836861235834937</v>
+        <v>0.5649038461538461</v>
       </c>
       <c r="Q7">
-        <v>0.9048713738368912</v>
+        <v>0.4266908760780754</v>
       </c>
       <c r="R7">
-        <v>0.9373752042112906</v>
+        <v>0.7961517516790706</v>
       </c>
       <c r="S7">
-        <v>0.3937282229965157</v>
+        <v>0.929434509424843</v>
       </c>
       <c r="T7">
-        <v>0.397887323943662</v>
+        <v>0.8223220012828736</v>
       </c>
       <c r="U7">
-        <v>0.3957968476357268</v>
+        <v>0.8726035167328418</v>
       </c>
       <c r="V7">
-        <v>0.9399165002722817</v>
+        <v>0.9126883281902342</v>
       </c>
       <c r="W7">
-        <v>0.3839541547277937</v>
+        <v>0.2786516853932584</v>
       </c>
       <c r="X7">
-        <v>0.536</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="Y7">
-        <v>0.4474123539232054</v>
+        <v>0.3401920438957476</v>
       </c>
       <c r="Z7">
-        <v>0.9424577963332729</v>
+        <v>0.9261208930840443</v>
       </c>
       <c r="AA7">
-        <v>0.4771084337349398</v>
+        <v>0.3195402298850575</v>
       </c>
       <c r="AB7">
-        <v>0.6644295302013423</v>
+        <v>0.556</v>
       </c>
       <c r="AC7">
-        <v>0.5553997194950911</v>
+        <v>0.4058394160583941</v>
+      </c>
+      <c r="AD7">
+        <v>0.9319295697948811</v>
+      </c>
+      <c r="AE7">
+        <v>0.4215885947046843</v>
+      </c>
+      <c r="AF7">
+        <v>0.6946308724832215</v>
+      </c>
+      <c r="AG7">
+        <v>0.5247148288973384</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:33">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>0.8302777273552369</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="E8">
-        <v>0.5422625699630352</v>
+        <v>0.5337606192070159</v>
       </c>
       <c r="F8">
-        <v>0.6105562184901515</v>
+        <v>0.6875473176826954</v>
       </c>
       <c r="G8">
-        <v>0.5699447396599072</v>
+        <v>0.5885283131197721</v>
       </c>
       <c r="H8">
-        <v>0.8302777273552369</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="I8">
-        <v>0.8302777273552369</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="J8">
-        <v>0.8302777273552369</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="K8">
-        <v>0.8482412881978348</v>
+        <v>0.8602019930707913</v>
       </c>
       <c r="L8">
-        <v>0.8302777273552369</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="M8">
-        <v>0.8376007885720389</v>
+        <v>0.8299193915803403</v>
       </c>
       <c r="N8">
-        <v>0.8415320384824833</v>
+        <v>0.8040940922966421</v>
       </c>
       <c r="O8">
-        <v>0.9249329758713136</v>
+        <v>0.401819560272934</v>
       </c>
       <c r="P8">
-        <v>0.8851828094932649</v>
+        <v>0.6370192307692307</v>
       </c>
       <c r="Q8">
-        <v>0.9046214355948869</v>
+        <v>0.4927940492794048</v>
       </c>
       <c r="R8">
-        <v>0.9377382465057179</v>
+        <v>0.8237429660555454</v>
       </c>
       <c r="S8">
-        <v>0.3942652329749104</v>
+        <v>0.9422434367541767</v>
       </c>
       <c r="T8">
-        <v>0.3873239436619718</v>
+        <v>0.8441308531109686</v>
       </c>
       <c r="U8">
-        <v>0.3907637655417407</v>
+        <v>0.8904928386150897</v>
       </c>
       <c r="V8">
-        <v>0.9397349791250681</v>
+        <v>0.92938827373389</v>
       </c>
       <c r="W8">
-        <v>0.378698224852071</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="X8">
-        <v>0.512</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="Y8">
-        <v>0.435374149659864</v>
+        <v>0.4185351270553064</v>
       </c>
       <c r="Z8">
-        <v>0.9415501905972046</v>
+        <v>0.936649119622436</v>
       </c>
       <c r="AA8">
-        <v>0.4711538461538461</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="AB8">
-        <v>0.6577181208053692</v>
+        <v>0.648</v>
       </c>
       <c r="AC8">
-        <v>0.5490196078431373</v>
+        <v>0.4814264487369985</v>
+      </c>
+      <c r="AD8">
+        <v>0.9359230350335814</v>
+      </c>
+      <c r="AE8">
+        <v>0.4461839530332681</v>
+      </c>
+      <c r="AF8">
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="AG8">
+        <v>0.5636588380716935</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:33">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D9">
-        <v>0.832819023416228</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="E9">
-        <v>0.5566046284836899</v>
+        <v>0.5337606192070159</v>
       </c>
       <c r="F9">
-        <v>0.6547595666035941</v>
+        <v>0.6875473176826954</v>
       </c>
       <c r="G9">
-        <v>0.5962643151095157</v>
+        <v>0.5885283131197721</v>
       </c>
       <c r="H9">
-        <v>0.832819023416228</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="I9">
-        <v>0.832819023416228</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="J9">
-        <v>0.832819023416228</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="K9">
-        <v>0.8589849691185715</v>
+        <v>0.8602019930707913</v>
       </c>
       <c r="L9">
-        <v>0.832819023416228</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="M9">
-        <v>0.8433034677817521</v>
+        <v>0.8299193915803403</v>
       </c>
       <c r="N9">
-        <v>0.8440733345434743</v>
+        <v>0.8040940922966421</v>
       </c>
       <c r="O9">
-        <v>0.9348519362186788</v>
+        <v>0.401819560272934</v>
       </c>
       <c r="P9">
-        <v>0.8774855676715844</v>
+        <v>0.6370192307692307</v>
       </c>
       <c r="Q9">
-        <v>0.9052608359986765</v>
+        <v>0.4927940492794048</v>
       </c>
       <c r="R9">
-        <v>0.9393719368306408</v>
+        <v>0.8237429660555454</v>
       </c>
       <c r="S9">
-        <v>0.4246987951807229</v>
+        <v>0.9422434367541767</v>
       </c>
       <c r="T9">
-        <v>0.4964788732394366</v>
+        <v>0.8441308531109686</v>
       </c>
       <c r="U9">
-        <v>0.4577922077922078</v>
+        <v>0.8904928386150897</v>
       </c>
       <c r="V9">
-        <v>0.9410056271555636</v>
+        <v>0.92938827373389</v>
       </c>
       <c r="W9">
-        <v>0.3978201634877384</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="X9">
-        <v>0.584</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="Y9">
-        <v>0.473257698541329</v>
+        <v>0.4185351270553064</v>
       </c>
       <c r="Z9">
-        <v>0.9411871483027773</v>
+        <v>0.936649119622436</v>
       </c>
       <c r="AA9">
-        <v>0.469047619047619</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="AB9">
-        <v>0.6610738255033557</v>
+        <v>0.648</v>
       </c>
       <c r="AC9">
-        <v>0.5487465181058496</v>
+        <v>0.4814264487369985</v>
+      </c>
+      <c r="AD9">
+        <v>0.9359230350335814</v>
+      </c>
+      <c r="AE9">
+        <v>0.4461839530332681</v>
+      </c>
+      <c r="AF9">
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="AG9">
+        <v>0.5636588380716935</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:33">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D10">
-        <v>0.8184788527863496</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="E10">
-        <v>0.5248398451271057</v>
+        <v>0.5337606192070159</v>
       </c>
       <c r="F10">
-        <v>0.6077260643587674</v>
+        <v>0.6875473176826954</v>
       </c>
       <c r="G10">
-        <v>0.5573857320213993</v>
+        <v>0.5885283131197721</v>
       </c>
       <c r="H10">
-        <v>0.8184788527863496</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="I10">
-        <v>0.8184788527863496</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="J10">
-        <v>0.8184788527863496</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="K10">
-        <v>0.843292817953266</v>
+        <v>0.8602019930707913</v>
       </c>
       <c r="L10">
-        <v>0.8184788527863496</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="M10">
-        <v>0.8284996256044868</v>
+        <v>0.8299193915803403</v>
       </c>
       <c r="N10">
-        <v>0.829188600471955</v>
+        <v>0.8040940922966421</v>
       </c>
       <c r="O10">
-        <v>0.9231989125509742</v>
+        <v>0.401819560272934</v>
       </c>
       <c r="P10">
-        <v>0.871285011759675</v>
+        <v>0.6370192307692307</v>
       </c>
       <c r="Q10">
-        <v>0.8964910350896491</v>
+        <v>0.4927940492794048</v>
       </c>
       <c r="R10">
-        <v>0.9350154292975131</v>
+        <v>0.8237429660555454</v>
       </c>
       <c r="S10">
-        <v>0.3741496598639456</v>
+        <v>0.9422434367541767</v>
       </c>
       <c r="T10">
-        <v>0.3873239436619718</v>
+        <v>0.8441308531109686</v>
       </c>
       <c r="U10">
-        <v>0.3806228373702422</v>
+        <v>0.8904928386150897</v>
       </c>
       <c r="V10">
-        <v>0.9362860773280087</v>
+        <v>0.92938827373389</v>
       </c>
       <c r="W10">
-        <v>0.3616438356164384</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="X10">
-        <v>0.528</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="Y10">
-        <v>0.4292682926829268</v>
+        <v>0.4185351270553064</v>
       </c>
       <c r="Z10">
-        <v>0.9364675984752223</v>
+        <v>0.936649119622436</v>
       </c>
       <c r="AA10">
-        <v>0.4403669724770642</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="AB10">
-        <v>0.6442953020134228</v>
+        <v>0.648</v>
       </c>
       <c r="AC10">
-        <v>0.5231607629427792</v>
+        <v>0.4814264487369985</v>
+      </c>
+      <c r="AD10">
+        <v>0.9359230350335814</v>
+      </c>
+      <c r="AE10">
+        <v>0.4461839530332681</v>
+      </c>
+      <c r="AF10">
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="AG10">
+        <v>0.5636588380716935</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:33">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D11">
-        <v>0.8241060083499727</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="E11">
-        <v>0.5339096035198256</v>
+        <v>0.5337606192070159</v>
       </c>
       <c r="F11">
-        <v>0.612326920794245</v>
+        <v>0.6875473176826954</v>
       </c>
       <c r="G11">
-        <v>0.5643941572003685</v>
+        <v>0.5885283131197721</v>
       </c>
       <c r="H11">
-        <v>0.8241060083499727</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="I11">
-        <v>0.8241060083499727</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="J11">
-        <v>0.8241060083499726</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="K11">
-        <v>0.8472132680205434</v>
+        <v>0.8602019930707913</v>
       </c>
       <c r="L11">
-        <v>0.8241060083499727</v>
+        <v>0.8128516972227264</v>
       </c>
       <c r="M11">
-        <v>0.8333741578401883</v>
+        <v>0.8299193915803403</v>
       </c>
       <c r="N11">
-        <v>0.83590488291886</v>
+        <v>0.8040940922966421</v>
       </c>
       <c r="O11">
-        <v>0.9257503949447078</v>
+        <v>0.401819560272934</v>
       </c>
       <c r="P11">
-        <v>0.8770579431259354</v>
+        <v>0.6370192307692307</v>
       </c>
       <c r="Q11">
-        <v>0.9007465963987703</v>
+        <v>0.4927940492794048</v>
       </c>
       <c r="R11">
-        <v>0.9386458522417862</v>
+        <v>0.8237429660555454</v>
       </c>
       <c r="S11">
-        <v>0.4035714285714286</v>
+        <v>0.9422434367541767</v>
       </c>
       <c r="T11">
-        <v>0.397887323943662</v>
+        <v>0.8441308531109686</v>
       </c>
       <c r="U11">
-        <v>0.4007092198581561</v>
+        <v>0.8904928386150897</v>
       </c>
       <c r="V11">
-        <v>0.9364675984752223</v>
+        <v>0.92938827373389</v>
       </c>
       <c r="W11">
-        <v>0.3611111111111111</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="X11">
-        <v>0.52</v>
+        <v>0.4929577464788732</v>
       </c>
       <c r="Y11">
-        <v>0.4262295081967213</v>
+        <v>0.4185351270553064</v>
       </c>
       <c r="Z11">
-        <v>0.9371936830640769</v>
+        <v>0.936649119622436</v>
       </c>
       <c r="AA11">
-        <v>0.4452054794520548</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="AB11">
-        <v>0.6543624161073825</v>
+        <v>0.648</v>
       </c>
       <c r="AC11">
-        <v>0.5298913043478262</v>
+        <v>0.4814264487369985</v>
+      </c>
+      <c r="AD11">
+        <v>0.9359230350335814</v>
+      </c>
+      <c r="AE11">
+        <v>0.4461839530332681</v>
+      </c>
+      <c r="AF11">
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="AG11">
+        <v>0.5636588380716935</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:33">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>0.8257396986748956</v>
+        <v>0.8092212742784535</v>
       </c>
       <c r="E12">
-        <v>0.5451687602269319</v>
+        <v>0.512447646431204</v>
       </c>
       <c r="F12">
-        <v>0.6492307528886132</v>
+        <v>0.6111254536689582</v>
       </c>
       <c r="G12">
-        <v>0.5863967377207533</v>
+        <v>0.5497044120490444</v>
       </c>
       <c r="H12">
-        <v>0.8257396986748956</v>
+        <v>0.8092212742784535</v>
       </c>
       <c r="I12">
-        <v>0.8257396986748956</v>
+        <v>0.8092212742784535</v>
       </c>
       <c r="J12">
-        <v>0.8257396986748956</v>
+        <v>0.8092212742784535</v>
       </c>
       <c r="K12">
-        <v>0.8555122328688184</v>
+        <v>0.84215651699373</v>
       </c>
       <c r="L12">
-        <v>0.8257396986748956</v>
+        <v>0.8092212742784535</v>
       </c>
       <c r="M12">
-        <v>0.8376013626500785</v>
+        <v>0.8223257889178816</v>
       </c>
       <c r="N12">
-        <v>0.8371755309493556</v>
+        <v>0.7996412556053811</v>
       </c>
       <c r="O12">
-        <v>0.9334862385321101</v>
+        <v>0.3776824034334764</v>
       </c>
       <c r="P12">
-        <v>0.8702159503955527</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="Q12">
-        <v>0.9007413964811332</v>
+        <v>0.4406609914872309</v>
       </c>
       <c r="R12">
-        <v>0.9377382465057179</v>
+        <v>0.8212016699945544</v>
       </c>
       <c r="S12">
-        <v>0.4134897360703813</v>
+        <v>0.9249539594843462</v>
       </c>
       <c r="T12">
-        <v>0.4964788732394366</v>
+        <v>0.8590977122086808</v>
       </c>
       <c r="U12">
-        <v>0.4512</v>
+        <v>0.8908103314488416</v>
       </c>
       <c r="V12">
-        <v>0.9395534579778544</v>
+        <v>0.9326556543837357</v>
       </c>
       <c r="W12">
-        <v>0.3910761154855643</v>
+        <v>0.3610223642172524</v>
       </c>
       <c r="X12">
-        <v>0.596</v>
+        <v>0.397887323943662</v>
       </c>
       <c r="Y12">
-        <v>0.4722662440570523</v>
+        <v>0.3785594639865997</v>
       </c>
       <c r="Z12">
-        <v>0.9370121619168633</v>
+        <v>0.9324741332365221</v>
       </c>
       <c r="AA12">
-        <v>0.4426229508196721</v>
+        <v>0.3482587064676617</v>
       </c>
       <c r="AB12">
-        <v>0.6342281879194631</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC12">
-        <v>0.5213793103448275</v>
+        <v>0.4294478527607363</v>
+      </c>
+      <c r="AD12">
+        <v>0.9321110909420948</v>
+      </c>
+      <c r="AE12">
+        <v>0.4155555555555556</v>
+      </c>
+      <c r="AF12">
+        <v>0.62751677852349</v>
+      </c>
+      <c r="AG12">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:33">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>0.8153929932837175</v>
+        <v>0.8190234162279906</v>
       </c>
       <c r="E13">
-        <v>0.5225322854767906</v>
+        <v>0.5344018594233075</v>
       </c>
       <c r="F13">
-        <v>0.6216458771672241</v>
+        <v>0.650762451502924</v>
       </c>
       <c r="G13">
-        <v>0.5605523226291602</v>
+        <v>0.5773225973938658</v>
       </c>
       <c r="H13">
-        <v>0.8153929932837175</v>
+        <v>0.8190234162279906</v>
       </c>
       <c r="I13">
-        <v>0.8153929932837175</v>
+        <v>0.8190234162279906</v>
       </c>
       <c r="J13">
-        <v>0.8153929932837175</v>
+        <v>0.8190234162279906</v>
       </c>
       <c r="K13">
-        <v>0.8461323086481107</v>
+        <v>0.8550956127656971</v>
       </c>
       <c r="L13">
-        <v>0.8153929932837175</v>
+        <v>0.8190234162279906</v>
       </c>
       <c r="M13">
-        <v>0.8275529753757092</v>
+        <v>0.832820113107169</v>
       </c>
       <c r="N13">
-        <v>0.8268288255581775</v>
+        <v>0.8087470872916294</v>
       </c>
       <c r="O13">
-        <v>0.9272435161808584</v>
+        <v>0.4023275145469659</v>
       </c>
       <c r="P13">
-        <v>0.8638015822108189</v>
+        <v>0.5817307692307693</v>
       </c>
       <c r="Q13">
-        <v>0.8943989373477972</v>
+        <v>0.4756756756756757</v>
       </c>
       <c r="R13">
-        <v>0.9332002178253767</v>
+        <v>0.831729896532946</v>
       </c>
       <c r="S13">
-        <v>0.3662420382165605</v>
+        <v>0.9354389224338133</v>
       </c>
       <c r="T13">
-        <v>0.4049295774647887</v>
+        <v>0.8612358349369253</v>
       </c>
       <c r="U13">
-        <v>0.3846153846153845</v>
+        <v>0.8968050762551486</v>
       </c>
       <c r="V13">
-        <v>0.933563260119804</v>
+        <v>0.9368306407696496</v>
       </c>
       <c r="W13">
-        <v>0.3497409326424871</v>
+        <v>0.39937106918239</v>
       </c>
       <c r="X13">
-        <v>0.54</v>
+        <v>0.4471830985915493</v>
       </c>
       <c r="Y13">
-        <v>0.4245283018867925</v>
+        <v>0.4219269102990034</v>
       </c>
       <c r="Z13">
-        <v>0.9371936830640769</v>
+        <v>0.9321110909420948</v>
       </c>
       <c r="AA13">
-        <v>0.4469026548672566</v>
+        <v>0.3537735849056604</v>
       </c>
       <c r="AB13">
-        <v>0.6778523489932886</v>
+        <v>0.6</v>
       </c>
       <c r="AC13">
-        <v>0.5386666666666667</v>
+        <v>0.4451038575667656</v>
+      </c>
+      <c r="AD13">
+        <v>0.9373752042112906</v>
+      </c>
+      <c r="AE13">
+        <v>0.4490238611713666</v>
+      </c>
+      <c r="AF13">
+        <v>0.6946308724832215</v>
+      </c>
+      <c r="AG13">
+        <v>0.5454545454545454</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:33">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>0.8144853875476493</v>
+        <v>0.8219277545834089</v>
       </c>
       <c r="E14">
-        <v>0.5183291549758183</v>
+        <v>0.5430425198135165</v>
       </c>
       <c r="F14">
-        <v>0.6149508644077104</v>
+        <v>0.6771278244001984</v>
       </c>
       <c r="G14">
-        <v>0.5552843645448325</v>
+        <v>0.5928184966761147</v>
       </c>
       <c r="H14">
-        <v>0.8144853875476493</v>
+        <v>0.8219277545834089</v>
       </c>
       <c r="I14">
-        <v>0.8144853875476493</v>
+        <v>0.8219277545834089</v>
       </c>
       <c r="J14">
-        <v>0.8144853875476493</v>
+        <v>0.8219277545834089</v>
       </c>
       <c r="K14">
-        <v>0.8449667623141579</v>
+        <v>0.8610436996355724</v>
       </c>
       <c r="L14">
-        <v>0.8144853875476493</v>
+        <v>0.8219277545834089</v>
       </c>
       <c r="M14">
-        <v>0.8265552370126801</v>
+        <v>0.8365130913044833</v>
       </c>
       <c r="N14">
-        <v>0.8268288255581775</v>
+        <v>0.8121973094170404</v>
       </c>
       <c r="O14">
-        <v>0.9268516395322174</v>
+        <v>0.413515687851971</v>
       </c>
       <c r="P14">
-        <v>0.8642292067564679</v>
+        <v>0.6177884615384616</v>
       </c>
       <c r="Q14">
-        <v>0.894445673821642</v>
+        <v>0.495421686746988</v>
       </c>
       <c r="R14">
-        <v>0.9328371755309494</v>
+        <v>0.8339081502995099</v>
       </c>
       <c r="S14">
-        <v>0.3612903225806451</v>
+        <v>0.9409282700421941</v>
       </c>
       <c r="T14">
-        <v>0.3943661971830986</v>
+        <v>0.8582424631173829</v>
       </c>
       <c r="U14">
-        <v>0.3771043771043771</v>
+        <v>0.8976853404897684</v>
       </c>
       <c r="V14">
-        <v>0.9333817389725904</v>
+        <v>0.9344708658558722</v>
       </c>
       <c r="W14">
-        <v>0.3448275862068966</v>
+        <v>0.3915492957746479</v>
       </c>
       <c r="X14">
-        <v>0.52</v>
+        <v>0.4894366197183099</v>
       </c>
       <c r="Y14">
-        <v>0.4146730462519936</v>
+        <v>0.4350547730829421</v>
       </c>
       <c r="Z14">
-        <v>0.9359230350335814</v>
+        <v>0.9381012888001452</v>
       </c>
       <c r="AA14">
-        <v>0.4403470715835141</v>
+        <v>0.3887530562347188</v>
       </c>
       <c r="AB14">
-        <v>0.6812080536912751</v>
+        <v>0.636</v>
       </c>
       <c r="AC14">
-        <v>0.5349143610013175</v>
+        <v>0.4825493171471927</v>
+      </c>
+      <c r="AD14">
+        <v>0.9373752042112906</v>
+      </c>
+      <c r="AE14">
+        <v>0.4509394572025052</v>
+      </c>
+      <c r="AF14">
+        <v>0.7248322147651006</v>
+      </c>
+      <c r="AG14">
+        <v>0.5559845559845559</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:33">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>0.8164821201669995</v>
+        <v>0.8008713015066256</v>
       </c>
       <c r="E15">
-        <v>0.5332009436524968</v>
+        <v>0.5033825806741192</v>
       </c>
       <c r="F15">
-        <v>0.6549579690223023</v>
+        <v>0.6149177383403038</v>
       </c>
       <c r="G15">
-        <v>0.579058309462636</v>
+        <v>0.544754564199979</v>
       </c>
       <c r="H15">
-        <v>0.8164821201669995</v>
+        <v>0.8008713015066256</v>
       </c>
       <c r="I15">
-        <v>0.8164821201669995</v>
+        <v>0.8008713015066256</v>
       </c>
       <c r="J15">
-        <v>0.8164821201669995</v>
+        <v>0.8008713015066254</v>
       </c>
       <c r="K15">
-        <v>0.8537553980419194</v>
+        <v>0.841472182957384</v>
       </c>
       <c r="L15">
-        <v>0.8164821201669995</v>
+        <v>0.8008713015066256</v>
       </c>
       <c r="M15">
-        <v>0.8308156717810299</v>
+        <v>0.8169546198911322</v>
       </c>
       <c r="N15">
-        <v>0.8275549101470321</v>
+        <v>0.7911063295678681</v>
       </c>
       <c r="O15">
-        <v>0.9342810533675134</v>
+        <v>0.3645240032546786</v>
       </c>
       <c r="P15">
-        <v>0.8571734017532606</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="Q15">
-        <v>0.8940677966101696</v>
+        <v>0.4347404172731683</v>
       </c>
       <c r="R15">
-        <v>0.9341078235614449</v>
+        <v>0.8132147395171537</v>
       </c>
       <c r="S15">
-        <v>0.3874643874643874</v>
+        <v>0.9261682242990654</v>
       </c>
       <c r="T15">
-        <v>0.4788732394366197</v>
+        <v>0.8475518494761599</v>
       </c>
       <c r="U15">
-        <v>0.4283464566929133</v>
+        <v>0.885117784972647</v>
       </c>
       <c r="V15">
-        <v>0.936104556180795</v>
+        <v>0.9273915411145398</v>
       </c>
       <c r="W15">
-        <v>0.375609756097561</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="X15">
-        <v>0.616</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="Y15">
-        <v>0.4666666666666667</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.9351969504447268</v>
+        <v>0.9263024142312579</v>
       </c>
       <c r="AA15">
-        <v>0.4354485776805251</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="AB15">
-        <v>0.6677852348993288</v>
+        <v>0.552</v>
       </c>
       <c r="AC15">
-        <v>0.5271523178807946</v>
+        <v>0.404692082111437</v>
+      </c>
+      <c r="AD15">
+        <v>0.9348339081502995</v>
+      </c>
+      <c r="AE15">
+        <v>0.4308390022675737</v>
+      </c>
+      <c r="AF15">
+        <v>0.6375838926174496</v>
+      </c>
+      <c r="AG15">
+        <v>0.5142083897158322</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:33">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D16">
-        <v>0.876928662189145</v>
+        <v>0.8126701760755128</v>
       </c>
       <c r="E16">
-        <v>0.6554484665679847</v>
+        <v>0.5295254622718092</v>
       </c>
       <c r="F16">
-        <v>0.78517769316708</v>
+        <v>0.6647080115311087</v>
       </c>
       <c r="G16">
-        <v>0.708514728531996</v>
+        <v>0.5784466625859757</v>
       </c>
       <c r="H16">
-        <v>0.876928662189145</v>
+        <v>0.8126701760755128</v>
       </c>
       <c r="I16">
-        <v>0.876928662189145</v>
+        <v>0.8126701760755128</v>
       </c>
       <c r="J16">
-        <v>0.876928662189145</v>
+        <v>0.812670176075513</v>
       </c>
       <c r="K16">
-        <v>0.8983599202852027</v>
+        <v>0.8550845534587475</v>
       </c>
       <c r="L16">
-        <v>0.876928662189145</v>
+        <v>0.8126701760755128</v>
       </c>
       <c r="M16">
-        <v>0.8845377598628134</v>
+        <v>0.8284381464542562</v>
       </c>
       <c r="N16">
-        <v>0.8832819023416228</v>
+        <v>0.803770197486535</v>
       </c>
       <c r="O16">
-        <v>0.9596627164995443</v>
+        <v>0.3970007892659826</v>
       </c>
       <c r="P16">
-        <v>0.9003634808638016</v>
+        <v>0.6045673076923077</v>
       </c>
       <c r="Q16">
-        <v>0.9290678433535576</v>
+        <v>0.4792758456407814</v>
       </c>
       <c r="R16">
-        <v>0.9564349246687239</v>
+        <v>0.8237429660555454</v>
       </c>
       <c r="S16">
-        <v>0.5650887573964497</v>
+        <v>0.9368222536539368</v>
       </c>
       <c r="T16">
-        <v>0.6725352112676056</v>
+        <v>0.8496899722044046</v>
       </c>
       <c r="U16">
-        <v>0.6141479099678456</v>
+        <v>0.8911312927458235</v>
       </c>
       <c r="V16">
-        <v>0.9618805590851334</v>
+        <v>0.9332002178253767</v>
       </c>
       <c r="W16">
-        <v>0.5558659217877095</v>
+        <v>0.38</v>
       </c>
       <c r="X16">
-        <v>0.796</v>
+        <v>0.4683098591549296</v>
       </c>
       <c r="Y16">
-        <v>0.6546052631578948</v>
+        <v>0.4195583596214511</v>
       </c>
       <c r="Z16">
-        <v>0.95225993828281</v>
+        <v>0.9341078235614449</v>
       </c>
       <c r="AA16">
-        <v>0.5411764705882353</v>
+        <v>0.3657957244655582</v>
       </c>
       <c r="AB16">
-        <v>0.7718120805369127</v>
+        <v>0.616</v>
       </c>
       <c r="AC16">
-        <v>0.636237897648686</v>
+        <v>0.459016393442623</v>
+      </c>
+      <c r="AD16">
+        <v>0.9342893447086585</v>
+      </c>
+      <c r="AE16">
+        <v>0.4354838709677419</v>
+      </c>
+      <c r="AF16">
+        <v>0.7248322147651006</v>
+      </c>
+      <c r="AG16">
+        <v>0.544080604534005</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:33">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>0.8683971682701035</v>
+        <v>0.8235614449083318</v>
       </c>
       <c r="E17">
-        <v>0.6388233592461794</v>
+        <v>0.5489477963850431</v>
       </c>
       <c r="F17">
-        <v>0.8180104069622239</v>
+        <v>0.6901310496529335</v>
       </c>
       <c r="G17">
-        <v>0.7072126835118611</v>
+        <v>0.6015556431547286</v>
       </c>
       <c r="H17">
-        <v>0.8683971682701035</v>
+        <v>0.8235614449083318</v>
       </c>
       <c r="I17">
-        <v>0.8683971682701035</v>
+        <v>0.8235614449083318</v>
       </c>
       <c r="J17">
-        <v>0.8683971682701035</v>
+        <v>0.8235614449083318</v>
       </c>
       <c r="K17">
-        <v>0.9016841722761347</v>
+        <v>0.8641308820462249</v>
       </c>
       <c r="L17">
-        <v>0.8683971682701035</v>
+        <v>0.8235614449083318</v>
       </c>
       <c r="M17">
-        <v>0.8792144100049445</v>
+        <v>0.8385937682868499</v>
       </c>
       <c r="N17">
-        <v>0.8743873661281539</v>
+        <v>0.8143959791778855</v>
       </c>
       <c r="O17">
-        <v>0.9678328246067152</v>
+        <v>0.4198412698412698</v>
       </c>
       <c r="P17">
-        <v>0.8813341885824246</v>
+        <v>0.6358173076923077</v>
       </c>
       <c r="Q17">
-        <v>0.9225604297224709</v>
+        <v>0.5057361376673041</v>
       </c>
       <c r="R17">
-        <v>0.9526229805772373</v>
+        <v>0.8348157560355781</v>
       </c>
       <c r="S17">
-        <v>0.529113924050633</v>
+        <v>0.9432807719463403</v>
       </c>
       <c r="T17">
-        <v>0.7359154929577465</v>
+        <v>0.8569595894804362</v>
       </c>
       <c r="U17">
-        <v>0.6156111929307806</v>
+        <v>0.8980506385839121</v>
       </c>
       <c r="V17">
-        <v>0.9571610092575785</v>
+        <v>0.9351969504447268</v>
       </c>
       <c r="W17">
-        <v>0.5173267326732673</v>
+        <v>0.4036939313984169</v>
       </c>
       <c r="X17">
-        <v>0.836</v>
+        <v>0.5387323943661971</v>
       </c>
       <c r="Y17">
-        <v>0.6391437308868501</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="Z17">
-        <v>0.9526229805772373</v>
+        <v>0.9386458522417862</v>
       </c>
       <c r="AA17">
-        <v>0.541019955654102</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="AB17">
-        <v>0.8187919463087249</v>
+        <v>0.64</v>
       </c>
       <c r="AC17">
-        <v>0.6515353805073432</v>
+        <v>0.486322188449848</v>
+      </c>
+      <c r="AD17">
+        <v>0.9384643310945725</v>
+      </c>
+      <c r="AE17">
+        <v>0.4566596194503171</v>
+      </c>
+      <c r="AF17">
+        <v>0.7248322147651006</v>
+      </c>
+      <c r="AG17">
+        <v>0.5603112840466926</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:33">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>0.8466146306044654</v>
+        <v>0.8206571065529135</v>
       </c>
       <c r="E18">
-        <v>0.6032850360052664</v>
+        <v>0.5292125312403826</v>
       </c>
       <c r="F18">
-        <v>0.8011038145694015</v>
+        <v>0.6084872194870999</v>
       </c>
       <c r="G18">
-        <v>0.6732872471581635</v>
+        <v>0.5601801152185704</v>
       </c>
       <c r="H18">
-        <v>0.8466146306044654</v>
+        <v>0.8206571065529135</v>
       </c>
       <c r="I18">
-        <v>0.8466146306044654</v>
+        <v>0.8206571065529135</v>
       </c>
       <c r="J18">
-        <v>0.8466146306044655</v>
+        <v>0.8206571065529135</v>
       </c>
       <c r="K18">
-        <v>0.8936359774530529</v>
+        <v>0.8438727414063825</v>
       </c>
       <c r="L18">
-        <v>0.8466146306044654</v>
+        <v>0.8206571065529135</v>
       </c>
       <c r="M18">
-        <v>0.8616363308282892</v>
+        <v>0.8299994952616125</v>
       </c>
       <c r="N18">
-        <v>0.8549646033762933</v>
+        <v>0.8123989218328841</v>
       </c>
       <c r="O18">
-        <v>0.9672289156626506</v>
+        <v>0.4018518518518518</v>
       </c>
       <c r="P18">
-        <v>0.8582424631173829</v>
+        <v>0.5216346153846154</v>
       </c>
       <c r="Q18">
-        <v>0.9094822703070127</v>
+        <v>0.4539748953974895</v>
       </c>
       <c r="R18">
-        <v>0.9449990923942639</v>
+        <v>0.8308222907968779</v>
       </c>
       <c r="S18">
-        <v>0.4763092269326683</v>
+        <v>0.922781666290359</v>
       </c>
       <c r="T18">
-        <v>0.6725352112676056</v>
+        <v>0.8738507590335686</v>
       </c>
       <c r="U18">
-        <v>0.5576642335766423</v>
+        <v>0.8976499011640676</v>
       </c>
       <c r="V18">
-        <v>0.9573425304047921</v>
+        <v>0.936649119622436</v>
       </c>
       <c r="W18">
-        <v>0.518796992481203</v>
+        <v>0.3851590106007067</v>
       </c>
       <c r="X18">
-        <v>0.828</v>
+        <v>0.3838028169014084</v>
       </c>
       <c r="Y18">
-        <v>0.637904468412943</v>
+        <v>0.3844797178130512</v>
       </c>
       <c r="Z18">
-        <v>0.9359230350335814</v>
+        <v>0.9362860773280087</v>
       </c>
       <c r="AA18">
-        <v>0.4508050089445438</v>
+        <v>0.3623978201634878</v>
       </c>
       <c r="AB18">
-        <v>0.8456375838926175</v>
+        <v>0.532</v>
       </c>
       <c r="AC18">
-        <v>0.5880980163360561</v>
+        <v>0.4311183144246353</v>
+      </c>
+      <c r="AD18">
+        <v>0.9375567253585043</v>
+      </c>
+      <c r="AE18">
+        <v>0.4465116279069767</v>
+      </c>
+      <c r="AF18">
+        <v>0.6442953020134228</v>
+      </c>
+      <c r="AG18">
+        <v>0.5274725274725275</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:33">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>0.8266473044109639</v>
+      </c>
+      <c r="E19">
+        <v>0.5470354811787238</v>
+      </c>
+      <c r="F19">
+        <v>0.6540124940723635</v>
+      </c>
+      <c r="G19">
+        <v>0.5874749665318121</v>
+      </c>
+      <c r="H19">
+        <v>0.8266473044109639</v>
+      </c>
+      <c r="I19">
+        <v>0.8266473044109639</v>
+      </c>
+      <c r="J19">
+        <v>0.8266473044109639</v>
+      </c>
+      <c r="K19">
+        <v>0.8564564815900915</v>
+      </c>
+      <c r="L19">
+        <v>0.8266473044109639</v>
+      </c>
+      <c r="M19">
+        <v>0.8380031109537799</v>
+      </c>
+      <c r="N19">
+        <v>0.8178879310344828</v>
+      </c>
+      <c r="O19">
+        <v>0.4211438474870017</v>
+      </c>
+      <c r="P19">
+        <v>0.5841346153846154</v>
+      </c>
+      <c r="Q19">
+        <v>0.4894259818731118</v>
+      </c>
+      <c r="R19">
+        <v>0.8373570520965693</v>
+      </c>
+      <c r="S19">
+        <v>0.9340987370838117</v>
+      </c>
+      <c r="T19">
+        <v>0.8697883258499037</v>
+      </c>
+      <c r="U19">
+        <v>0.9007971656333037</v>
+      </c>
+      <c r="V19">
+        <v>0.9390088945362135</v>
+      </c>
+      <c r="W19">
+        <v>0.4139072847682119</v>
+      </c>
+      <c r="X19">
+        <v>0.4401408450704226</v>
+      </c>
+      <c r="Y19">
+        <v>0.4266211604095563</v>
+      </c>
+      <c r="Z19">
+        <v>0.9386458522417862</v>
+      </c>
+      <c r="AA19">
+        <v>0.3848167539267016</v>
+      </c>
+      <c r="AB19">
+        <v>0.588</v>
+      </c>
+      <c r="AC19">
+        <v>0.4651898734177215</v>
+      </c>
+      <c r="AD19">
+        <v>0.9382828099473589</v>
+      </c>
+      <c r="AE19">
+        <v>0.4553191489361702</v>
+      </c>
+      <c r="AF19">
+        <v>0.7181208053691275</v>
+      </c>
+      <c r="AG19">
+        <v>0.5572916666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="E20">
+        <v>0.5712936076017341</v>
+      </c>
+      <c r="F20">
+        <v>0.6841510572894615</v>
+      </c>
+      <c r="G20">
+        <v>0.6147971368257927</v>
+      </c>
+      <c r="H20">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="I20">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="J20">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="K20">
+        <v>0.8657192367194704</v>
+      </c>
+      <c r="L20">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="M20">
+        <v>0.8484705332245714</v>
+      </c>
+      <c r="N20">
+        <v>0.8305755395683453</v>
+      </c>
+      <c r="O20">
+        <v>0.4520069808027923</v>
+      </c>
+      <c r="P20">
+        <v>0.6225961538461539</v>
+      </c>
+      <c r="Q20">
+        <v>0.5237613751263903</v>
+      </c>
+      <c r="R20">
+        <v>0.8475222363405337</v>
+      </c>
+      <c r="S20">
+        <v>0.9397203758881504</v>
+      </c>
+      <c r="T20">
+        <v>0.8766303185802865</v>
+      </c>
+      <c r="U20">
+        <v>0.9070796460176991</v>
+      </c>
+      <c r="V20">
+        <v>0.9413686694499909</v>
+      </c>
+      <c r="W20">
+        <v>0.4372990353697749</v>
+      </c>
+      <c r="X20">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="Y20">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="Z20">
+        <v>0.9455436558359048</v>
+      </c>
+      <c r="AA20">
+        <v>0.4301675977653631</v>
+      </c>
+      <c r="AB20">
+        <v>0.616</v>
+      </c>
+      <c r="AC20">
+        <v>0.5065789473684211</v>
+      </c>
+      <c r="AD20">
+        <v>0.9420947540388456</v>
+      </c>
+      <c r="AE20">
+        <v>0.4779874213836478</v>
+      </c>
+      <c r="AF20">
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="AG20">
+        <v>0.5883870967741935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>0.8152114721365039</v>
+      </c>
+      <c r="E21">
+        <v>0.523192131543693</v>
+      </c>
+      <c r="F21">
+        <v>0.6254199673418377</v>
+      </c>
+      <c r="G21">
+        <v>0.5621119871098925</v>
+      </c>
+      <c r="H21">
+        <v>0.8152114721365039</v>
+      </c>
+      <c r="I21">
+        <v>0.8152114721365039</v>
+      </c>
+      <c r="J21">
+        <v>0.8152114721365039</v>
+      </c>
+      <c r="K21">
+        <v>0.8470010474209272</v>
+      </c>
+      <c r="L21">
+        <v>0.8152114721365039</v>
+      </c>
+      <c r="M21">
+        <v>0.8277106826352397</v>
+      </c>
+      <c r="N21">
+        <v>0.8058496321550332</v>
+      </c>
+      <c r="O21">
+        <v>0.3924268502581756</v>
+      </c>
+      <c r="P21">
+        <v>0.5480769230769231</v>
+      </c>
+      <c r="Q21">
+        <v>0.4573721163490472</v>
+      </c>
+      <c r="R21">
+        <v>0.8268288255581775</v>
+      </c>
+      <c r="S21">
+        <v>0.9282263630089717</v>
+      </c>
+      <c r="T21">
+        <v>0.8627325208466966</v>
+      </c>
+      <c r="U21">
+        <v>0.894281914893617</v>
+      </c>
+      <c r="V21">
+        <v>0.9333817389725904</v>
+      </c>
+      <c r="W21">
+        <v>0.3682539682539683</v>
+      </c>
+      <c r="X21">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="Y21">
+        <v>0.3873121869782972</v>
+      </c>
+      <c r="Z21">
+        <v>0.9341078235614449</v>
+      </c>
+      <c r="AA21">
+        <v>0.3554987212276215</v>
+      </c>
+      <c r="AB21">
+        <v>0.556</v>
+      </c>
+      <c r="AC21">
+        <v>0.4336973478939158</v>
+      </c>
+      <c r="AD21">
+        <v>0.936104556180795</v>
+      </c>
+      <c r="AE21">
+        <v>0.4407894736842105</v>
+      </c>
+      <c r="AF21">
+        <v>0.674496644295302</v>
+      </c>
+      <c r="AG21">
+        <v>0.53315649867374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>0.8241060083499727</v>
+      </c>
+      <c r="E22">
+        <v>0.5448915251070608</v>
+      </c>
+      <c r="F22">
+        <v>0.6643677298951334</v>
+      </c>
+      <c r="G22">
+        <v>0.5904978570723562</v>
+      </c>
+      <c r="H22">
+        <v>0.8241060083499727</v>
+      </c>
+      <c r="I22">
+        <v>0.8241060083499727</v>
+      </c>
+      <c r="J22">
+        <v>0.8241060083499726</v>
+      </c>
+      <c r="K22">
+        <v>0.8573421354104298</v>
+      </c>
+      <c r="L22">
+        <v>0.8241060083499727</v>
+      </c>
+      <c r="M22">
+        <v>0.8367207595781978</v>
+      </c>
+      <c r="N22">
+        <v>0.8158131176999102</v>
+      </c>
+      <c r="O22">
+        <v>0.418975650713686</v>
+      </c>
+      <c r="P22">
+        <v>0.5997596153846154</v>
+      </c>
+      <c r="Q22">
+        <v>0.4933267424616906</v>
+      </c>
+      <c r="R22">
+        <v>0.8342711925939372</v>
+      </c>
+      <c r="S22">
+        <v>0.9358499305233905</v>
+      </c>
+      <c r="T22">
+        <v>0.8640153944836434</v>
+      </c>
+      <c r="U22">
+        <v>0.8984991662034464</v>
+      </c>
+      <c r="V22">
+        <v>0.9346523870030858</v>
+      </c>
+      <c r="W22">
+        <v>0.3875739644970414</v>
+      </c>
+      <c r="X22">
+        <v>0.4612676056338028</v>
+      </c>
+      <c r="Y22">
+        <v>0.4212218649517684</v>
+      </c>
+      <c r="Z22">
+        <v>0.9404610637139227</v>
+      </c>
+      <c r="AA22">
+        <v>0.3973684210526316</v>
+      </c>
+      <c r="AB22">
+        <v>0.604</v>
+      </c>
+      <c r="AC22">
+        <v>0.4793650793650793</v>
+      </c>
+      <c r="AD22">
+        <v>0.9388273733889998</v>
+      </c>
+      <c r="AE22">
+        <v>0.4587737843551797</v>
+      </c>
+      <c r="AF22">
+        <v>0.7281879194630873</v>
+      </c>
+      <c r="AG22">
+        <v>0.5629053177691309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="E23">
+        <v>0.5639155097171136</v>
+      </c>
+      <c r="F23">
+        <v>0.6846139630227045</v>
+      </c>
+      <c r="G23">
+        <v>0.6105723118623186</v>
+      </c>
+      <c r="H23">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="I23">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="J23">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="K23">
+        <v>0.8649009132965026</v>
+      </c>
+      <c r="L23">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="M23">
+        <v>0.8452474529421637</v>
+      </c>
+      <c r="N23">
+        <v>0.8251258087706685</v>
+      </c>
+      <c r="O23">
+        <v>0.4403048264182896</v>
+      </c>
+      <c r="P23">
+        <v>0.625</v>
+      </c>
+      <c r="Q23">
+        <v>0.516641828117238</v>
+      </c>
+      <c r="R23">
+        <v>0.8433472499546197</v>
+      </c>
+      <c r="S23">
+        <v>0.9406192236598891</v>
+      </c>
+      <c r="T23">
+        <v>0.8704297626683771</v>
+      </c>
+      <c r="U23">
+        <v>0.9041643531371462</v>
+      </c>
+      <c r="V23">
+        <v>0.940279542566709</v>
+      </c>
+      <c r="W23">
+        <v>0.4340175953079179</v>
+      </c>
+      <c r="X23">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="Y23">
+        <v>0.4736</v>
+      </c>
+      <c r="Z23">
+        <v>0.9446360500998366</v>
+      </c>
+      <c r="AA23">
+        <v>0.4238227146814404</v>
+      </c>
+      <c r="AB23">
+        <v>0.612</v>
+      </c>
+      <c r="AC23">
+        <v>0.5008183306055647</v>
+      </c>
+      <c r="AD23">
+        <v>0.9384643310945725</v>
+      </c>
+      <c r="AE23">
+        <v>0.4572025052192067</v>
+      </c>
+      <c r="AF23">
+        <v>0.7348993288590604</v>
+      </c>
+      <c r="AG23">
+        <v>0.5637065637065638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>0.8219277545834089</v>
+      </c>
+      <c r="E24">
+        <v>0.5430425198135165</v>
+      </c>
+      <c r="F24">
+        <v>0.6771278244001984</v>
+      </c>
+      <c r="G24">
+        <v>0.5928184966761147</v>
+      </c>
+      <c r="H24">
+        <v>0.8219277545834089</v>
+      </c>
+      <c r="I24">
+        <v>0.8219277545834089</v>
+      </c>
+      <c r="J24">
+        <v>0.8219277545834089</v>
+      </c>
+      <c r="K24">
+        <v>0.8610436996355724</v>
+      </c>
+      <c r="L24">
+        <v>0.8219277545834089</v>
+      </c>
+      <c r="M24">
+        <v>0.8365130913044833</v>
+      </c>
+      <c r="N24">
+        <v>0.8121973094170404</v>
+      </c>
+      <c r="O24">
+        <v>0.413515687851971</v>
+      </c>
+      <c r="P24">
+        <v>0.6177884615384616</v>
+      </c>
+      <c r="Q24">
+        <v>0.495421686746988</v>
+      </c>
+      <c r="R24">
+        <v>0.8339081502995099</v>
+      </c>
+      <c r="S24">
+        <v>0.9409282700421941</v>
+      </c>
+      <c r="T24">
+        <v>0.8582424631173829</v>
+      </c>
+      <c r="U24">
+        <v>0.8976853404897684</v>
+      </c>
+      <c r="V24">
+        <v>0.9344708658558722</v>
+      </c>
+      <c r="W24">
+        <v>0.3915492957746479</v>
+      </c>
+      <c r="X24">
+        <v>0.4894366197183099</v>
+      </c>
+      <c r="Y24">
+        <v>0.4350547730829421</v>
+      </c>
+      <c r="Z24">
+        <v>0.9381012888001452</v>
+      </c>
+      <c r="AA24">
+        <v>0.3887530562347188</v>
+      </c>
+      <c r="AB24">
+        <v>0.636</v>
+      </c>
+      <c r="AC24">
+        <v>0.4825493171471927</v>
+      </c>
+      <c r="AD24">
+        <v>0.9373752042112906</v>
+      </c>
+      <c r="AE24">
+        <v>0.4509394572025052</v>
+      </c>
+      <c r="AF24">
+        <v>0.7248322147651006</v>
+      </c>
+      <c r="AG24">
+        <v>0.5559845559845559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>0.8239244872027591</v>
+      </c>
+      <c r="E25">
+        <v>0.5483360919935072</v>
+      </c>
+      <c r="F25">
+        <v>0.6720778820753466</v>
+      </c>
+      <c r="G25">
+        <v>0.5948782702287997</v>
+      </c>
+      <c r="H25">
+        <v>0.8239244872027591</v>
+      </c>
+      <c r="I25">
+        <v>0.8239244872027591</v>
+      </c>
+      <c r="J25">
+        <v>0.823924487202759</v>
+      </c>
+      <c r="K25">
+        <v>0.8590049427554046</v>
+      </c>
+      <c r="L25">
+        <v>0.8239244872027591</v>
+      </c>
+      <c r="M25">
+        <v>0.8371264216083331</v>
+      </c>
+      <c r="N25">
+        <v>0.8160733549083063</v>
+      </c>
+      <c r="O25">
+        <v>0.4208782104391052</v>
+      </c>
+      <c r="P25">
+        <v>0.6105769230769231</v>
+      </c>
+      <c r="Q25">
+        <v>0.4982834722903385</v>
+      </c>
+      <c r="R25">
+        <v>0.8335451080050826</v>
+      </c>
+      <c r="S25">
+        <v>0.9370060437006044</v>
+      </c>
+      <c r="T25">
+        <v>0.8618772717553987</v>
+      </c>
+      <c r="U25">
+        <v>0.8978728143445818</v>
+      </c>
+      <c r="V25">
+        <v>0.9386458522417862</v>
+      </c>
+      <c r="W25">
+        <v>0.4191616766467066</v>
+      </c>
+      <c r="X25">
+        <v>0.4929577464788732</v>
+      </c>
+      <c r="Y25">
+        <v>0.4530744336569579</v>
+      </c>
+      <c r="Z25">
+        <v>0.9386458522417862</v>
+      </c>
+      <c r="AA25">
+        <v>0.3883248730964467</v>
+      </c>
+      <c r="AB25">
+        <v>0.612</v>
+      </c>
+      <c r="AC25">
+        <v>0.4751552795031056</v>
+      </c>
+      <c r="AD25">
+        <v>0.9370121619168633</v>
+      </c>
+      <c r="AE25">
+        <v>0.4488517745302714</v>
+      </c>
+      <c r="AF25">
+        <v>0.7214765100671141</v>
+      </c>
+      <c r="AG25">
+        <v>0.5534105534105535</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>0.8469776728988927</v>
+      </c>
+      <c r="E26">
+        <v>0.5968754416612012</v>
+      </c>
+      <c r="F26">
+        <v>0.7377158743718393</v>
+      </c>
+      <c r="G26">
+        <v>0.6512348770207224</v>
+      </c>
+      <c r="H26">
+        <v>0.8469776728988927</v>
+      </c>
+      <c r="I26">
+        <v>0.8469776728988927</v>
+      </c>
+      <c r="J26">
+        <v>0.8469776728988927</v>
+      </c>
+      <c r="K26">
+        <v>0.8792193528205305</v>
+      </c>
+      <c r="L26">
+        <v>0.8469776728988927</v>
+      </c>
+      <c r="M26">
+        <v>0.8586192115443907</v>
+      </c>
+      <c r="N26">
+        <v>0.840569266798775</v>
+      </c>
+      <c r="O26">
+        <v>0.4780082987551867</v>
+      </c>
+      <c r="P26">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="Q26">
+        <v>0.5655375552282769</v>
+      </c>
+      <c r="R26">
+        <v>0.854601561081866</v>
+      </c>
+      <c r="S26">
+        <v>0.9502788104089219</v>
+      </c>
+      <c r="T26">
+        <v>0.8744921958520419</v>
+      </c>
+      <c r="U26">
+        <v>0.9108117136176371</v>
+      </c>
+      <c r="V26">
+        <v>0.9489925576329642</v>
+      </c>
+      <c r="W26">
+        <v>0.5042492917847026</v>
+      </c>
+      <c r="X26">
+        <v>0.6267605633802817</v>
+      </c>
+      <c r="Y26">
+        <v>0.5588697017268446</v>
+      </c>
+      <c r="Z26">
+        <v>0.9489925576329642</v>
+      </c>
+      <c r="AA26">
+        <v>0.4597402597402597</v>
+      </c>
+      <c r="AB26">
+        <v>0.708</v>
+      </c>
+      <c r="AC26">
+        <v>0.5574803149606299</v>
+      </c>
+      <c r="AD26">
+        <v>0.9413686694499909</v>
+      </c>
+      <c r="AE26">
+        <v>0.4732334047109208</v>
+      </c>
+      <c r="AF26">
+        <v>0.7416107382550335</v>
+      </c>
+      <c r="AG26">
+        <v>0.5777777777777778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>0.8235614449083318</v>
+      </c>
+      <c r="E27">
+        <v>0.5489477963850431</v>
+      </c>
+      <c r="F27">
+        <v>0.6901310496529335</v>
+      </c>
+      <c r="G27">
+        <v>0.6015556431547286</v>
+      </c>
+      <c r="H27">
+        <v>0.8235614449083318</v>
+      </c>
+      <c r="I27">
+        <v>0.8235614449083318</v>
+      </c>
+      <c r="J27">
+        <v>0.8235614449083318</v>
+      </c>
+      <c r="K27">
+        <v>0.8641308820462249</v>
+      </c>
+      <c r="L27">
+        <v>0.8235614449083318</v>
+      </c>
+      <c r="M27">
+        <v>0.8385937682868499</v>
+      </c>
+      <c r="N27">
+        <v>0.8143959791778855</v>
+      </c>
+      <c r="O27">
+        <v>0.4198412698412698</v>
+      </c>
+      <c r="P27">
+        <v>0.6358173076923077</v>
+      </c>
+      <c r="Q27">
+        <v>0.5057361376673041</v>
+      </c>
+      <c r="R27">
+        <v>0.8348157560355781</v>
+      </c>
+      <c r="S27">
+        <v>0.9432807719463403</v>
+      </c>
+      <c r="T27">
+        <v>0.8569595894804362</v>
+      </c>
+      <c r="U27">
+        <v>0.8980506385839121</v>
+      </c>
+      <c r="V27">
+        <v>0.9351969504447268</v>
+      </c>
+      <c r="W27">
+        <v>0.4036939313984169</v>
+      </c>
+      <c r="X27">
+        <v>0.5387323943661971</v>
+      </c>
+      <c r="Y27">
+        <v>0.4615384615384615</v>
+      </c>
+      <c r="Z27">
+        <v>0.9386458522417862</v>
+      </c>
+      <c r="AA27">
+        <v>0.392156862745098</v>
+      </c>
+      <c r="AB27">
+        <v>0.64</v>
+      </c>
+      <c r="AC27">
+        <v>0.486322188449848</v>
+      </c>
+      <c r="AD27">
+        <v>0.9384643310945725</v>
+      </c>
+      <c r="AE27">
+        <v>0.4566596194503171</v>
+      </c>
+      <c r="AF27">
+        <v>0.7248322147651006</v>
+      </c>
+      <c r="AG27">
+        <v>0.5603112840466926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>0.8222907968778362</v>
+      </c>
+      <c r="E28">
+        <v>0.5464132140649982</v>
+      </c>
+      <c r="F28">
+        <v>0.6822585172782811</v>
+      </c>
+      <c r="G28">
+        <v>0.5968101016695839</v>
+      </c>
+      <c r="H28">
+        <v>0.8222907968778362</v>
+      </c>
+      <c r="I28">
+        <v>0.8222907968778362</v>
+      </c>
+      <c r="J28">
+        <v>0.8222907968778362</v>
+      </c>
+      <c r="K28">
+        <v>0.8617890361794078</v>
+      </c>
+      <c r="L28">
+        <v>0.8222907968778362</v>
+      </c>
+      <c r="M28">
+        <v>0.8369711616988016</v>
+      </c>
+      <c r="N28">
+        <v>0.8135775862068966</v>
+      </c>
+      <c r="O28">
+        <v>0.4174679487179487</v>
+      </c>
+      <c r="P28">
+        <v>0.6262019230769231</v>
+      </c>
+      <c r="Q28">
+        <v>0.5009615384615386</v>
+      </c>
+      <c r="R28">
+        <v>0.8330005445634416</v>
+      </c>
+      <c r="S28">
+        <v>0.940858953297348</v>
+      </c>
+      <c r="T28">
+        <v>0.8571734017532606</v>
+      </c>
+      <c r="U28">
+        <v>0.8970686954575968</v>
+      </c>
+      <c r="V28">
+        <v>0.9370121619168633</v>
+      </c>
+      <c r="W28">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="X28">
+        <v>0.5176056338028169</v>
+      </c>
+      <c r="Y28">
+        <v>0.4586583463338533</v>
+      </c>
+      <c r="Z28">
+        <v>0.9359230350335814</v>
+      </c>
+      <c r="AA28">
+        <v>0.3746958637469586</v>
+      </c>
+      <c r="AB28">
+        <v>0.616</v>
+      </c>
+      <c r="AC28">
+        <v>0.4659606656580938</v>
+      </c>
+      <c r="AD28">
+        <v>0.9386458522417862</v>
+      </c>
+      <c r="AE28">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="AF28">
+        <v>0.738255033557047</v>
+      </c>
+      <c r="AG28">
+        <v>0.5655526992287918</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>0.8426211653657651</v>
+      </c>
+      <c r="E29">
+        <v>0.5894847661903944</v>
+      </c>
+      <c r="F29">
+        <v>0.7453368857821063</v>
+      </c>
+      <c r="G29">
+        <v>0.6481636456255176</v>
+      </c>
+      <c r="H29">
+        <v>0.8426211653657651</v>
+      </c>
+      <c r="I29">
+        <v>0.8426211653657651</v>
+      </c>
+      <c r="J29">
+        <v>0.8426211653657651</v>
+      </c>
+      <c r="K29">
+        <v>0.8797155361097587</v>
+      </c>
+      <c r="L29">
+        <v>0.8426211653657651</v>
+      </c>
+      <c r="M29">
+        <v>0.8557148338545114</v>
+      </c>
+      <c r="N29">
+        <v>0.8357940223262513</v>
+      </c>
+      <c r="O29">
+        <v>0.4680511182108626</v>
+      </c>
+      <c r="P29">
+        <v>0.7043269230769231</v>
+      </c>
+      <c r="Q29">
+        <v>0.5623800383877159</v>
+      </c>
+      <c r="R29">
+        <v>0.8507896169903794</v>
+      </c>
+      <c r="S29">
+        <v>0.952783650458069</v>
+      </c>
+      <c r="T29">
+        <v>0.8672225785760103</v>
+      </c>
+      <c r="U29">
+        <v>0.9079919408999328</v>
+      </c>
+      <c r="V29">
+        <v>0.9460882192775458</v>
+      </c>
+      <c r="W29">
+        <v>0.4825737265415549</v>
+      </c>
+      <c r="X29">
+        <v>0.6338028169014085</v>
+      </c>
+      <c r="Y29">
+        <v>0.5479452054794521</v>
+      </c>
+      <c r="Z29">
+        <v>0.9479034307496823</v>
+      </c>
+      <c r="AA29">
+        <v>0.4540942928039702</v>
+      </c>
+      <c r="AB29">
+        <v>0.732</v>
+      </c>
+      <c r="AC29">
+        <v>0.5604900459418071</v>
+      </c>
+      <c r="AD29">
+        <v>0.9404610637139227</v>
+      </c>
+      <c r="AE29">
+        <v>0.4684873949579832</v>
+      </c>
+      <c r="AF29">
+        <v>0.7483221476510067</v>
+      </c>
+      <c r="AG29">
+        <v>0.5762273901808785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>0.8691232528589581</v>
+      </c>
+      <c r="E30">
+        <v>0.6516725607919894</v>
+      </c>
+      <c r="F30">
+        <v>0.8333919931113603</v>
+      </c>
+      <c r="G30">
+        <v>0.719277592041573</v>
+      </c>
+      <c r="H30">
+        <v>0.8691232528589581</v>
+      </c>
+      <c r="I30">
+        <v>0.8691232528589581</v>
+      </c>
+      <c r="J30">
+        <v>0.8691232528589581</v>
+      </c>
+      <c r="K30">
+        <v>0.9055621835650565</v>
+      </c>
+      <c r="L30">
+        <v>0.8691232528589581</v>
+      </c>
+      <c r="M30">
+        <v>0.8806529860349136</v>
+      </c>
+      <c r="N30">
+        <v>0.865040650406504</v>
+      </c>
+      <c r="O30">
+        <v>0.533281127642913</v>
+      </c>
+      <c r="P30">
+        <v>0.8185096153846154</v>
+      </c>
+      <c r="Q30">
+        <v>0.6458036984352774</v>
+      </c>
+      <c r="R30">
+        <v>0.8738428026865129</v>
+      </c>
+      <c r="S30">
+        <v>0.9704631379962193</v>
+      </c>
+      <c r="T30">
+        <v>0.8781270044900578</v>
+      </c>
+      <c r="U30">
+        <v>0.921988999887754</v>
+      </c>
+      <c r="V30">
+        <v>0.9520784171355963</v>
+      </c>
+      <c r="W30">
+        <v>0.5248756218905473</v>
+      </c>
+      <c r="X30">
+        <v>0.7429577464788732</v>
+      </c>
+      <c r="Y30">
+        <v>0.6151603498542274</v>
+      </c>
+      <c r="Z30">
+        <v>0.9705935741513886</v>
+      </c>
+      <c r="AA30">
+        <v>0.6325301204819277</v>
+      </c>
+      <c r="AB30">
+        <v>0.84</v>
+      </c>
+      <c r="AC30">
+        <v>0.7216494845360825</v>
+      </c>
+      <c r="AD30">
+        <v>0.9417317117444183</v>
+      </c>
+      <c r="AE30">
+        <v>0.4788213627992634</v>
+      </c>
+      <c r="AF30">
+        <v>0.87248322147651</v>
+      </c>
+      <c r="AG30">
+        <v>0.6183115338882283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>0.8787438736612816</v>
+      </c>
+      <c r="E31">
+        <v>0.6783264828346222</v>
+      </c>
+      <c r="F31">
+        <v>0.8208588690549491</v>
+      </c>
+      <c r="G31">
+        <v>0.728882694240243</v>
+      </c>
+      <c r="H31">
+        <v>0.8787438736612816</v>
+      </c>
+      <c r="I31">
+        <v>0.8787438736612816</v>
+      </c>
+      <c r="J31">
+        <v>0.8787438736612816</v>
+      </c>
+      <c r="K31">
+        <v>0.9095188023851363</v>
+      </c>
+      <c r="L31">
+        <v>0.8787438736612816</v>
+      </c>
+      <c r="M31">
+        <v>0.8885772838611712</v>
+      </c>
+      <c r="N31">
+        <v>0.873511367737279</v>
+      </c>
+      <c r="O31">
+        <v>0.5548117154811716</v>
+      </c>
+      <c r="P31">
+        <v>0.796875</v>
+      </c>
+      <c r="Q31">
+        <v>0.6541687222496301</v>
+      </c>
+      <c r="R31">
+        <v>0.884734071519332</v>
+      </c>
+      <c r="S31">
+        <v>0.9684747334260547</v>
+      </c>
+      <c r="T31">
+        <v>0.8933076758605945</v>
+      </c>
+      <c r="U31">
+        <v>0.929373818262707</v>
+      </c>
+      <c r="V31">
+        <v>0.9658740243238337</v>
+      </c>
+      <c r="W31">
+        <v>0.6655172413793103</v>
+      </c>
+      <c r="X31">
+        <v>0.6795774647887324</v>
+      </c>
+      <c r="Y31">
+        <v>0.6724738675958188</v>
+      </c>
+      <c r="Z31">
+        <v>0.9689598838264658</v>
+      </c>
+      <c r="AA31">
+        <v>0.6179104477611941</v>
+      </c>
+      <c r="AB31">
+        <v>0.828</v>
+      </c>
+      <c r="AC31">
+        <v>0.7076923076923077</v>
+      </c>
+      <c r="AD31">
+        <v>0.9379197676529316</v>
+      </c>
+      <c r="AE31">
+        <v>0.4614035087719298</v>
+      </c>
+      <c r="AF31">
+        <v>0.8825503355704698</v>
+      </c>
+      <c r="AG31">
+        <v>0.6059907834101382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>0.8596841532038483</v>
+      </c>
+      <c r="E32">
+        <v>0.6142906106925491</v>
+      </c>
+      <c r="F32">
+        <v>0.7060924034332605</v>
+      </c>
+      <c r="G32">
+        <v>0.6515405896347845</v>
+      </c>
+      <c r="H32">
+        <v>0.8596841532038483</v>
+      </c>
+      <c r="I32">
+        <v>0.8596841532038483</v>
+      </c>
+      <c r="J32">
+        <v>0.8596841532038483</v>
+      </c>
+      <c r="K32">
+        <v>0.8768031807736492</v>
+      </c>
+      <c r="L32">
+        <v>0.8596841532038483</v>
+      </c>
+      <c r="M32">
+        <v>0.8660377787210845</v>
+      </c>
+      <c r="N32">
+        <v>0.8533333333333334</v>
+      </c>
+      <c r="O32">
+        <v>0.50853889943074</v>
+      </c>
+      <c r="P32">
+        <v>0.6442307692307693</v>
+      </c>
+      <c r="Q32">
+        <v>0.5683987274655355</v>
+      </c>
+      <c r="R32">
+        <v>0.8671265202396079</v>
+      </c>
+      <c r="S32">
+        <v>0.9427609427609428</v>
+      </c>
+      <c r="T32">
+        <v>0.8980115458627326</v>
+      </c>
+      <c r="U32">
+        <v>0.9198423127463864</v>
+      </c>
+      <c r="V32">
+        <v>0.9473588673080414</v>
+      </c>
+      <c r="W32">
+        <v>0.4895833333333333</v>
+      </c>
+      <c r="X32">
+        <v>0.4964788732394366</v>
+      </c>
+      <c r="Y32">
+        <v>0.493006993006993</v>
+      </c>
+      <c r="Z32">
+        <v>0.9531675440188782</v>
+      </c>
+      <c r="AA32">
+        <v>0.4879518072289157</v>
+      </c>
+      <c r="AB32">
+        <v>0.648</v>
+      </c>
+      <c r="AC32">
+        <v>0.5567010309278351</v>
+      </c>
+      <c r="AD32">
+        <v>0.951715374841169</v>
+      </c>
+      <c r="AE32">
+        <v>0.5368663594470046</v>
+      </c>
+      <c r="AF32">
+        <v>0.7818791946308725</v>
+      </c>
+      <c r="AG32">
+        <v>0.6366120218579234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>0.8602287166454892</v>
+      </c>
+      <c r="E33">
+        <v>0.6153626968626589</v>
+      </c>
+      <c r="F33">
+        <v>0.7015200279789093</v>
+      </c>
+      <c r="G33">
+        <v>0.6500237408435307</v>
+      </c>
+      <c r="H33">
+        <v>0.8602287166454892</v>
+      </c>
+      <c r="I33">
+        <v>0.8602287166454892</v>
+      </c>
+      <c r="J33">
+        <v>0.8602287166454892</v>
+      </c>
+      <c r="K33">
+        <v>0.876572293000584</v>
+      </c>
+      <c r="L33">
+        <v>0.8602287166454892</v>
+      </c>
+      <c r="M33">
+        <v>0.8662645507835415</v>
+      </c>
+      <c r="N33">
+        <v>0.8535662824207493</v>
+      </c>
+      <c r="O33">
+        <v>0.5091083413231065</v>
+      </c>
+      <c r="P33">
+        <v>0.6382211538461539</v>
+      </c>
+      <c r="Q33">
+        <v>0.5664</v>
+      </c>
+      <c r="R33">
+        <v>0.8680341259756762</v>
+      </c>
+      <c r="S33">
+        <v>0.942230183609494</v>
+      </c>
+      <c r="T33">
+        <v>0.8997220440453282</v>
+      </c>
+      <c r="U33">
+        <v>0.920485617412228</v>
+      </c>
+      <c r="V33">
+        <v>0.9486295153385369</v>
+      </c>
+      <c r="W33">
+        <v>0.501779359430605</v>
+      </c>
+      <c r="X33">
+        <v>0.4964788732394366</v>
+      </c>
+      <c r="Y33">
+        <v>0.4991150442477876</v>
+      </c>
+      <c r="Z33">
+        <v>0.9533490651660919</v>
+      </c>
+      <c r="AA33">
+        <v>0.4890965732087227</v>
+      </c>
+      <c r="AB33">
+        <v>0.628</v>
+      </c>
+      <c r="AC33">
+        <v>0.5499124343257443</v>
+      </c>
+      <c r="AD33">
+        <v>0.9504447268106735</v>
+      </c>
+      <c r="AE33">
+        <v>0.5283446712018141</v>
+      </c>
+      <c r="AF33">
+        <v>0.7818791946308725</v>
+      </c>
+      <c r="AG33">
+        <v>0.6305818673883626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34">
+        <v>0.8722091123615902</v>
+      </c>
+      <c r="E34">
+        <v>0.6443408219438456</v>
+      </c>
+      <c r="F34">
+        <v>0.7661996838977854</v>
+      </c>
+      <c r="G34">
+        <v>0.6943520125459283</v>
+      </c>
+      <c r="H34">
+        <v>0.8722091123615902</v>
+      </c>
+      <c r="I34">
+        <v>0.8722091123615902</v>
+      </c>
+      <c r="J34">
+        <v>0.8722091123615902</v>
+      </c>
+      <c r="K34">
+        <v>0.8937797121933796</v>
+      </c>
+      <c r="L34">
+        <v>0.8722091123615902</v>
+      </c>
+      <c r="M34">
+        <v>0.8800483258334957</v>
+      </c>
+      <c r="N34">
+        <v>0.8657657657657658</v>
+      </c>
+      <c r="O34">
+        <v>0.5390134529147982</v>
+      </c>
+      <c r="P34">
+        <v>0.7223557692307693</v>
+      </c>
+      <c r="Q34">
+        <v>0.6173600410888547</v>
+      </c>
+      <c r="R34">
+        <v>0.8796514793973498</v>
+      </c>
+      <c r="S34">
+        <v>0.9567592171142467</v>
+      </c>
+      <c r="T34">
+        <v>0.8988667949540303</v>
+      </c>
+      <c r="U34">
+        <v>0.9269099327527285</v>
+      </c>
+      <c r="V34">
+        <v>0.9542566709021602</v>
+      </c>
+      <c r="W34">
+        <v>0.5473372781065089</v>
+      </c>
+      <c r="X34">
+        <v>0.6514084507042254</v>
+      </c>
+      <c r="Y34">
+        <v>0.594855305466238</v>
+      </c>
+      <c r="Z34">
+        <v>0.9602468687602106</v>
+      </c>
+      <c r="AA34">
+        <v>0.5459940652818991</v>
+      </c>
+      <c r="AB34">
+        <v>0.736</v>
+      </c>
+      <c r="AC34">
+        <v>0.6269165247018739</v>
+      </c>
+      <c r="AD34">
+        <v>0.9502632056634598</v>
+      </c>
+      <c r="AE34">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="AF34">
+        <v>0.7785234899328859</v>
+      </c>
+      <c r="AG34">
+        <v>0.6287262872628726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>0.8585950263205664</v>
+      </c>
+      <c r="E35">
+        <v>0.6104388710107362</v>
+      </c>
+      <c r="F35">
+        <v>0.7031344735697896</v>
+      </c>
+      <c r="G35">
+        <v>0.6481964740711323</v>
+      </c>
+      <c r="H35">
+        <v>0.8585950263205664</v>
+      </c>
+      <c r="I35">
+        <v>0.8585950263205664</v>
+      </c>
+      <c r="J35">
+        <v>0.8585950263205664</v>
+      </c>
+      <c r="K35">
+        <v>0.8763535519077987</v>
+      </c>
+      <c r="L35">
+        <v>0.8585950263205664</v>
+      </c>
+      <c r="M35">
+        <v>0.8652623540955751</v>
+      </c>
+      <c r="N35">
+        <v>0.8514851485148515</v>
+      </c>
+      <c r="O35">
+        <v>0.5033050047214354</v>
+      </c>
+      <c r="P35">
+        <v>0.640625</v>
+      </c>
+      <c r="Q35">
+        <v>0.5637228979375992</v>
+      </c>
+      <c r="R35">
+        <v>0.8669449990923943</v>
+      </c>
+      <c r="S35">
+        <v>0.9431460674157304</v>
+      </c>
+      <c r="T35">
+        <v>0.8973701090442592</v>
+      </c>
+      <c r="U35">
+        <v>0.9196888353237647</v>
+      </c>
+      <c r="V35">
+        <v>0.9468143038664004</v>
+      </c>
+      <c r="W35">
+        <v>0.484641638225256</v>
+      </c>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35">
+        <v>0.4922010398613518</v>
+      </c>
+      <c r="Z35">
+        <v>0.95225993828281</v>
+      </c>
+      <c r="AA35">
+        <v>0.4804804804804805</v>
+      </c>
+      <c r="AB35">
+        <v>0.64</v>
+      </c>
+      <c r="AC35">
+        <v>0.548885077186964</v>
+      </c>
+      <c r="AD35">
+        <v>0.9511708113995281</v>
+      </c>
+      <c r="AE35">
+        <v>0.5334872979214781</v>
+      </c>
+      <c r="AF35">
+        <v>0.7751677852348994</v>
+      </c>
+      <c r="AG35">
+        <v>0.6320109439124487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="D19">
-        <v>0.8553276456707206</v>
-      </c>
-      <c r="E19">
-        <v>0.6145571060861322</v>
-      </c>
-      <c r="F19">
-        <v>0.7959932975541869</v>
-      </c>
-      <c r="G19">
-        <v>0.6825067199602163</v>
-      </c>
-      <c r="H19">
-        <v>0.8553276456707206</v>
-      </c>
-      <c r="I19">
-        <v>0.8553276456707206</v>
-      </c>
-      <c r="J19">
-        <v>0.8553276456707207</v>
-      </c>
-      <c r="K19">
-        <v>0.8942702737126315</v>
-      </c>
-      <c r="L19">
-        <v>0.8553276456707206</v>
-      </c>
-      <c r="M19">
-        <v>0.8683088735885565</v>
-      </c>
-      <c r="N19">
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36">
+        <v>0.8533309130513704</v>
+      </c>
+      <c r="E36">
+        <v>0.5999071491831263</v>
+      </c>
+      <c r="F36">
+        <v>0.6913703994461537</v>
+      </c>
+      <c r="G36">
+        <v>0.636044566974231</v>
+      </c>
+      <c r="H36">
+        <v>0.8533309130513704</v>
+      </c>
+      <c r="I36">
+        <v>0.8533309130513704</v>
+      </c>
+      <c r="J36">
+        <v>0.8533309130513704</v>
+      </c>
+      <c r="K36">
+        <v>0.8724652878473226</v>
+      </c>
+      <c r="L36">
+        <v>0.8533309130513704</v>
+      </c>
+      <c r="M36">
+        <v>0.8604387092230643</v>
+      </c>
+      <c r="N36">
+        <v>0.8461123110151187</v>
+      </c>
+      <c r="O36">
+        <v>0.4892221180880975</v>
+      </c>
+      <c r="P36">
+        <v>0.6274038461538461</v>
+      </c>
+      <c r="Q36">
+        <v>0.5497630331753555</v>
+      </c>
+      <c r="R36">
+        <v>0.8618624069704121</v>
+      </c>
+      <c r="S36">
+        <v>0.9407924358397118</v>
+      </c>
+      <c r="T36">
+        <v>0.8935214881334188</v>
+      </c>
+      <c r="U36">
+        <v>0.9165478670906897</v>
+      </c>
+      <c r="V36">
+        <v>0.9477219096024687</v>
+      </c>
+      <c r="W36">
+        <v>0.4929078014184397</v>
+      </c>
+      <c r="X36">
+        <v>0.4894366197183099</v>
+      </c>
+      <c r="Y36">
+        <v>0.4911660777385159</v>
+      </c>
+      <c r="Z36">
+        <v>0.9482664730441096</v>
+      </c>
+      <c r="AA36">
+        <v>0.4480712166172107</v>
+      </c>
+      <c r="AB36">
+        <v>0.604</v>
+      </c>
+      <c r="AC36">
+        <v>0.5144804088586031</v>
+      </c>
+      <c r="AD36">
+        <v>0.9488110364857506</v>
+      </c>
+      <c r="AE36">
+        <v>0.5178571428571429</v>
+      </c>
+      <c r="AF36">
+        <v>0.7785234899328859</v>
+      </c>
+      <c r="AG36">
+        <v>0.6219839142091153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37">
         <v>0.8633145761481212</v>
       </c>
-      <c r="O19">
-        <v>0.9649289099526066</v>
-      </c>
-      <c r="P19">
+      <c r="E37">
+        <v>0.6247991270366225</v>
+      </c>
+      <c r="F37">
+        <v>0.7523985419838153</v>
+      </c>
+      <c r="G37">
+        <v>0.6763469851426187</v>
+      </c>
+      <c r="H37">
+        <v>0.8633145761481212</v>
+      </c>
+      <c r="I37">
+        <v>0.8633145761481212</v>
+      </c>
+      <c r="J37">
+        <v>0.8633145761481212</v>
+      </c>
+      <c r="K37">
+        <v>0.88799760777917</v>
+      </c>
+      <c r="L37">
+        <v>0.8633145761481212</v>
+      </c>
+      <c r="M37">
+        <v>0.8723325454859365</v>
+      </c>
+      <c r="N37">
+        <v>0.8564739780298938</v>
+      </c>
+      <c r="O37">
+        <v>0.5153374233128835</v>
+      </c>
+      <c r="P37">
+        <v>0.7067307692307693</v>
+      </c>
+      <c r="Q37">
+        <v>0.5960466294982261</v>
+      </c>
+      <c r="R37">
+        <v>0.8713015066255219</v>
+      </c>
+      <c r="S37">
+        <v>0.9542124542124543</v>
+      </c>
+      <c r="T37">
+        <v>0.8911695531323498</v>
+      </c>
+      <c r="U37">
+        <v>0.9216141514648978</v>
+      </c>
+      <c r="V37">
+        <v>0.9515338536939554</v>
+      </c>
+      <c r="W37">
+        <v>0.5246376811594203</v>
+      </c>
+      <c r="X37">
+        <v>0.6373239436619719</v>
+      </c>
+      <c r="Y37">
+        <v>0.5755166931637521</v>
+      </c>
+      <c r="Z37">
+        <v>0.9544381920493737</v>
+      </c>
+      <c r="AA37">
+        <v>0.4986072423398329</v>
+      </c>
+      <c r="AB37">
+        <v>0.716</v>
+      </c>
+      <c r="AC37">
+        <v>0.5878489326765188</v>
+      </c>
+      <c r="AD37">
+        <v>0.9493555999273915</v>
+      </c>
+      <c r="AE37">
+        <v>0.5217391304347826</v>
+      </c>
+      <c r="AF37">
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="AG37">
+        <v>0.6204081632653061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="E38">
+        <v>0.5712936076017341</v>
+      </c>
+      <c r="F38">
+        <v>0.6841510572894615</v>
+      </c>
+      <c r="G38">
+        <v>0.6147971368257927</v>
+      </c>
+      <c r="H38">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="I38">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="J38">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="K38">
+        <v>0.8657192367194704</v>
+      </c>
+      <c r="L38">
+        <v>0.8382646578326375</v>
+      </c>
+      <c r="M38">
+        <v>0.8484705332245714</v>
+      </c>
+      <c r="N38">
+        <v>0.8305755395683453</v>
+      </c>
+      <c r="O38">
+        <v>0.4520069808027923</v>
+      </c>
+      <c r="P38">
+        <v>0.6225961538461539</v>
+      </c>
+      <c r="Q38">
+        <v>0.5237613751263903</v>
+      </c>
+      <c r="R38">
+        <v>0.8475222363405337</v>
+      </c>
+      <c r="S38">
+        <v>0.9397203758881504</v>
+      </c>
+      <c r="T38">
+        <v>0.8766303185802865</v>
+      </c>
+      <c r="U38">
+        <v>0.9070796460176991</v>
+      </c>
+      <c r="V38">
+        <v>0.9413686694499909</v>
+      </c>
+      <c r="W38">
+        <v>0.4372990353697749</v>
+      </c>
+      <c r="X38">
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="Y38">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="Z38">
+        <v>0.9455436558359048</v>
+      </c>
+      <c r="AA38">
+        <v>0.4301675977653631</v>
+      </c>
+      <c r="AB38">
+        <v>0.616</v>
+      </c>
+      <c r="AC38">
+        <v>0.5065789473684211</v>
+      </c>
+      <c r="AD38">
+        <v>0.9420947540388456</v>
+      </c>
+      <c r="AE38">
+        <v>0.4779874213836478</v>
+      </c>
+      <c r="AF38">
+        <v>0.7651006711409396</v>
+      </c>
+      <c r="AG38">
+        <v>0.5883870967741935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39">
+        <v>0.8398983481575604</v>
+      </c>
+      <c r="E39">
+        <v>0.5758232679303839</v>
+      </c>
+      <c r="F39">
+        <v>0.689229603468274</v>
+      </c>
+      <c r="G39">
+        <v>0.6195650035160827</v>
+      </c>
+      <c r="H39">
+        <v>0.8398983481575604</v>
+      </c>
+      <c r="I39">
+        <v>0.8398983481575604</v>
+      </c>
+      <c r="J39">
+        <v>0.8398983481575605</v>
+      </c>
+      <c r="K39">
+        <v>0.8671558262639939</v>
+      </c>
+      <c r="L39">
+        <v>0.8398983481575604</v>
+      </c>
+      <c r="M39">
+        <v>0.8500170667696911</v>
+      </c>
+      <c r="N39">
+        <v>0.8327933765298776</v>
+      </c>
+      <c r="O39">
+        <v>0.4576419213973799</v>
+      </c>
+      <c r="P39">
+        <v>0.6298076923076923</v>
+      </c>
+      <c r="Q39">
+        <v>0.530096105209914</v>
+      </c>
+      <c r="R39">
+        <v>0.8484298420766019</v>
+      </c>
+      <c r="S39">
+        <v>0.94019248395967</v>
+      </c>
+      <c r="T39">
+        <v>0.8772717553987599</v>
+      </c>
+      <c r="U39">
+        <v>0.9076429598495741</v>
+      </c>
+      <c r="V39">
+        <v>0.9435469232165548</v>
+      </c>
+      <c r="W39">
+        <v>0.4563106796116505</v>
+      </c>
+      <c r="X39">
+        <v>0.4964788732394366</v>
+      </c>
+      <c r="Y39">
+        <v>0.4755480607082631</v>
+      </c>
+      <c r="Z39">
+        <v>0.9433654020693411</v>
+      </c>
+      <c r="AA39">
+        <v>0.4153005464480874</v>
+      </c>
+      <c r="AB39">
+        <v>0.608</v>
+      </c>
+      <c r="AC39">
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="AD39">
+        <v>0.9444545289526229</v>
+      </c>
+      <c r="AE39">
+        <v>0.4914893617021276</v>
+      </c>
+      <c r="AF39">
+        <v>0.7751677852348994</v>
+      </c>
+      <c r="AG39">
+        <v>0.6015625000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40">
+        <v>0.8509711381375931</v>
+      </c>
+      <c r="E40">
+        <v>0.6042812221030842</v>
+      </c>
+      <c r="F40">
+        <v>0.7475105865471517</v>
+      </c>
+      <c r="G40">
+        <v>0.6596313062323668</v>
+      </c>
+      <c r="H40">
+        <v>0.8509711381375931</v>
+      </c>
+      <c r="I40">
+        <v>0.8509711381375931</v>
+      </c>
+      <c r="J40">
+        <v>0.8509711381375931</v>
+      </c>
+      <c r="K40">
+        <v>0.8823647301512868</v>
+      </c>
+      <c r="L40">
+        <v>0.8509711381375931</v>
+      </c>
+      <c r="M40">
+        <v>0.8621602827572836</v>
+      </c>
+      <c r="N40">
+        <v>0.8446846846846847</v>
+      </c>
+      <c r="O40">
+        <v>0.4875207986688852</v>
+      </c>
+      <c r="P40">
+        <v>0.7043269230769231</v>
+      </c>
+      <c r="Q40">
+        <v>0.576204523107178</v>
+      </c>
+      <c r="R40">
+        <v>0.8584135051733527</v>
+      </c>
+      <c r="S40">
+        <v>0.952403064778268</v>
+      </c>
+      <c r="T40">
+        <v>0.8770579431259354</v>
+      </c>
+      <c r="U40">
+        <v>0.9131789848619769</v>
+      </c>
+      <c r="V40">
+        <v>0.9489925576329642</v>
+      </c>
+      <c r="W40">
+        <v>0.5042735042735043</v>
+      </c>
+      <c r="X40">
+        <v>0.6232394366197183</v>
+      </c>
+      <c r="Y40">
+        <v>0.5574803149606299</v>
+      </c>
+      <c r="Z40">
+        <v>0.9513523325467417</v>
+      </c>
+      <c r="AA40">
+        <v>0.4764397905759162</v>
+      </c>
+      <c r="AB40">
+        <v>0.728</v>
+      </c>
+      <c r="AC40">
+        <v>0.5759493670886077</v>
+      </c>
+      <c r="AD40">
+        <v>0.9431838809221275</v>
+      </c>
+      <c r="AE40">
+        <v>0.4840085287846482</v>
+      </c>
+      <c r="AF40">
+        <v>0.761744966442953</v>
+      </c>
+      <c r="AG40">
+        <v>0.5919165580182529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="E41">
+        <v>0.5639155097171136</v>
+      </c>
+      <c r="F41">
+        <v>0.6846139630227045</v>
+      </c>
+      <c r="G41">
+        <v>0.6105723118623186</v>
+      </c>
+      <c r="H41">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="I41">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="J41">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="K41">
+        <v>0.8649009132965026</v>
+      </c>
+      <c r="L41">
+        <v>0.8333635868578689</v>
+      </c>
+      <c r="M41">
+        <v>0.8452474529421637</v>
+      </c>
+      <c r="N41">
+        <v>0.8251258087706685</v>
+      </c>
+      <c r="O41">
+        <v>0.4403048264182896</v>
+      </c>
+      <c r="P41">
+        <v>0.625</v>
+      </c>
+      <c r="Q41">
+        <v>0.516641828117238</v>
+      </c>
+      <c r="R41">
+        <v>0.8433472499546197</v>
+      </c>
+      <c r="S41">
+        <v>0.9406192236598891</v>
+      </c>
+      <c r="T41">
+        <v>0.8704297626683771</v>
+      </c>
+      <c r="U41">
+        <v>0.9041643531371462</v>
+      </c>
+      <c r="V41">
+        <v>0.940279542566709</v>
+      </c>
+      <c r="W41">
+        <v>0.4340175953079179</v>
+      </c>
+      <c r="X41">
+        <v>0.5211267605633803</v>
+      </c>
+      <c r="Y41">
+        <v>0.4736</v>
+      </c>
+      <c r="Z41">
+        <v>0.9446360500998366</v>
+      </c>
+      <c r="AA41">
+        <v>0.4238227146814404</v>
+      </c>
+      <c r="AB41">
+        <v>0.612</v>
+      </c>
+      <c r="AC41">
+        <v>0.5008183306055647</v>
+      </c>
+      <c r="AD41">
+        <v>0.9384643310945725</v>
+      </c>
+      <c r="AE41">
+        <v>0.4572025052192067</v>
+      </c>
+      <c r="AF41">
+        <v>0.7348993288590604</v>
+      </c>
+      <c r="AG41">
+        <v>0.5637065637065638</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42">
+        <v>0.8351787983300054</v>
+      </c>
+      <c r="E42">
+        <v>0.5668590642643938</v>
+      </c>
+      <c r="F42">
+        <v>0.683516295955314</v>
+      </c>
+      <c r="G42">
+        <v>0.6115644185844129</v>
+      </c>
+      <c r="H42">
+        <v>0.8351787983300054</v>
+      </c>
+      <c r="I42">
+        <v>0.8351787983300054</v>
+      </c>
+      <c r="J42">
+        <v>0.8351787983300054</v>
+      </c>
+      <c r="K42">
+        <v>0.8655781055652794</v>
+      </c>
+      <c r="L42">
+        <v>0.8351787983300054</v>
+      </c>
+      <c r="M42">
+        <v>0.8465789117501685</v>
+      </c>
+      <c r="N42">
+        <v>0.8269230769230769</v>
+      </c>
+      <c r="O42">
+        <v>0.4439692044482464</v>
+      </c>
+      <c r="P42">
+        <v>0.6237980769230769</v>
+      </c>
+      <c r="Q42">
+        <v>0.5187406296851574</v>
+      </c>
+      <c r="R42">
+        <v>0.8451624614267562</v>
+      </c>
+      <c r="S42">
+        <v>0.9405529953917051</v>
+      </c>
+      <c r="T42">
+        <v>0.8727816976694462</v>
+      </c>
+      <c r="U42">
+        <v>0.9054009093933681</v>
+      </c>
+      <c r="V42">
+        <v>0.9433654020693411</v>
+      </c>
+      <c r="W42">
+        <v>0.4565217391304348</v>
+      </c>
+      <c r="X42">
+        <v>0.5176056338028169</v>
+      </c>
+      <c r="Y42">
+        <v>0.4851485148514852</v>
+      </c>
+      <c r="Z42">
+        <v>0.9422762751860592</v>
+      </c>
+      <c r="AA42">
+        <v>0.4065934065934066</v>
+      </c>
+      <c r="AB42">
+        <v>0.592</v>
+      </c>
+      <c r="AC42">
+        <v>0.4820846905537459</v>
+      </c>
+      <c r="AD42">
+        <v>0.9395534579778544</v>
+      </c>
+      <c r="AE42">
+        <v>0.463768115942029</v>
+      </c>
+      <c r="AF42">
+        <v>0.7516778523489933</v>
+      </c>
+      <c r="AG42">
+        <v>0.5736235595390525</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <v>0.8464331094572518</v>
+      </c>
+      <c r="E43">
+        <v>0.5960830611884891</v>
+      </c>
+      <c r="F43">
+        <v>0.7505848468499615</v>
+      </c>
+      <c r="G43">
+        <v>0.6542957735342962</v>
+      </c>
+      <c r="H43">
+        <v>0.8464331094572518</v>
+      </c>
+      <c r="I43">
+        <v>0.8464331094572518</v>
+      </c>
+      <c r="J43">
+        <v>0.8464331094572518</v>
+      </c>
+      <c r="K43">
+        <v>0.882211850254167</v>
+      </c>
+      <c r="L43">
+        <v>0.8464331094572518</v>
+      </c>
+      <c r="M43">
+        <v>0.8589673399123861</v>
+      </c>
+      <c r="N43">
+        <v>0.8394239423942395</v>
+      </c>
+      <c r="O43">
+        <v>0.4758454106280193</v>
+      </c>
+      <c r="P43">
+        <v>0.7103365384615384</v>
+      </c>
+      <c r="Q43">
+        <v>0.5699132111861138</v>
+      </c>
+      <c r="R43">
+        <v>0.8547830822290797</v>
+      </c>
+      <c r="S43">
+        <v>0.9543004452777126</v>
+      </c>
+      <c r="T43">
         <v>0.8706435749412016</v>
       </c>
-      <c r="Q19">
-        <v>0.9153647296841632</v>
-      </c>
-      <c r="R19">
-        <v>0.9413686694499909</v>
-      </c>
-      <c r="S19">
-        <v>0.456953642384106</v>
-      </c>
-      <c r="T19">
+      <c r="U43">
+        <v>0.9105545617173524</v>
+      </c>
+      <c r="V43">
+        <v>0.9473588673080414</v>
+      </c>
+      <c r="W43">
+        <v>0.4916666666666666</v>
+      </c>
+      <c r="X43">
+        <v>0.6232394366197183</v>
+      </c>
+      <c r="Y43">
+        <v>0.5496894409937887</v>
+      </c>
+      <c r="Z43">
+        <v>0.9499001633690325</v>
+      </c>
+      <c r="AA43">
+        <v>0.4671717171717172</v>
+      </c>
+      <c r="AB43">
+        <v>0.74</v>
+      </c>
+      <c r="AC43">
+        <v>0.5727554179566563</v>
+      </c>
+      <c r="AD43">
+        <v>0.94082410600835</v>
+      </c>
+      <c r="AE43">
+        <v>0.4711934156378601</v>
+      </c>
+      <c r="AF43">
+        <v>0.7684563758389261</v>
+      </c>
+      <c r="AG43">
+        <v>0.5841836734693877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>0.8838264657832637</v>
+      </c>
+      <c r="E44">
+        <v>0.6783409619902229</v>
+      </c>
+      <c r="F44">
+        <v>0.8166050435806973</v>
+      </c>
+      <c r="G44">
+        <v>0.7341933096926191</v>
+      </c>
+      <c r="H44">
+        <v>0.8838264657832637</v>
+      </c>
+      <c r="I44">
+        <v>0.8838264657832637</v>
+      </c>
+      <c r="J44">
+        <v>0.8838264657832637</v>
+      </c>
+      <c r="K44">
+        <v>0.9066074724073921</v>
+      </c>
+      <c r="L44">
+        <v>0.8838264657832637</v>
+      </c>
+      <c r="M44">
+        <v>0.8915784062643494</v>
+      </c>
+      <c r="N44">
+        <v>0.8799927706488343</v>
+      </c>
+      <c r="O44">
+        <v>0.5735551663747811</v>
+      </c>
+      <c r="P44">
+        <v>0.7872596153846154</v>
+      </c>
+      <c r="Q44">
+        <v>0.6636271529888551</v>
+      </c>
+      <c r="R44">
+        <v>0.8881829733163914</v>
+      </c>
+      <c r="S44">
+        <v>0.9649645065262193</v>
+      </c>
+      <c r="T44">
+        <v>0.901004917682275</v>
+      </c>
+      <c r="U44">
+        <v>0.9318885448916409</v>
+      </c>
+      <c r="V44">
+        <v>0.9573425304047921</v>
+      </c>
+      <c r="W44">
+        <v>0.5690140845070423</v>
+      </c>
+      <c r="X44">
+        <v>0.7112676056338029</v>
+      </c>
+      <c r="Y44">
+        <v>0.6322378716744914</v>
+      </c>
+      <c r="Z44">
+        <v>0.9729533490651661</v>
+      </c>
+      <c r="AA44">
+        <v>0.6603174603174603</v>
+      </c>
+      <c r="AB44">
+        <v>0.832</v>
+      </c>
+      <c r="AC44">
+        <v>0.736283185840708</v>
+      </c>
+      <c r="AD44">
+        <v>0.9491740787801779</v>
+      </c>
+      <c r="AE44">
+        <v>0.5190677966101694</v>
+      </c>
+      <c r="AF44">
+        <v>0.8221476510067114</v>
+      </c>
+      <c r="AG44">
+        <v>0.6363636363636362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45">
+        <v>0.8874568887275368</v>
+      </c>
+      <c r="E45">
+        <v>0.6856923203586549</v>
+      </c>
+      <c r="F45">
+        <v>0.8099975589647621</v>
+      </c>
+      <c r="G45">
+        <v>0.7368234073824369</v>
+      </c>
+      <c r="H45">
+        <v>0.8874568887275368</v>
+      </c>
+      <c r="I45">
+        <v>0.8874568887275368</v>
+      </c>
+      <c r="J45">
+        <v>0.8874568887275368</v>
+      </c>
+      <c r="K45">
+        <v>0.9066774701685661</v>
+      </c>
+      <c r="L45">
+        <v>0.8874568887275368</v>
+      </c>
+      <c r="M45">
+        <v>0.8941196245180053</v>
+      </c>
+      <c r="N45">
+        <v>0.883767172812726</v>
+      </c>
+      <c r="O45">
+        <v>0.585675430643699</v>
+      </c>
+      <c r="P45">
+        <v>0.7764423076923077</v>
+      </c>
+      <c r="Q45">
+        <v>0.6677002583979328</v>
+      </c>
+      <c r="R45">
+        <v>0.8916318751134508</v>
+      </c>
+      <c r="S45">
+        <v>0.963004993191103</v>
+      </c>
+      <c r="T45">
+        <v>0.9072054735941844</v>
+      </c>
+      <c r="U45">
+        <v>0.9342728173510954</v>
+      </c>
+      <c r="V45">
+        <v>0.9606099110546379</v>
+      </c>
+      <c r="W45">
+        <v>0.6012084592145015</v>
+      </c>
+      <c r="X45">
+        <v>0.7007042253521126</v>
+      </c>
+      <c r="Y45">
+        <v>0.6471544715447154</v>
+      </c>
+      <c r="Z45">
+        <v>0.9715011798874569</v>
+      </c>
+      <c r="AA45">
+        <v>0.6466876971608833</v>
+      </c>
+      <c r="AB45">
+        <v>0.82</v>
+      </c>
+      <c r="AC45">
+        <v>0.7231040564373898</v>
+      </c>
+      <c r="AD45">
+        <v>0.9511708113995281</v>
+      </c>
+      <c r="AE45">
+        <v>0.5318681318681319</v>
+      </c>
+      <c r="AF45">
+        <v>0.8120805369127517</v>
+      </c>
+      <c r="AG45">
+        <v>0.6427622841965471</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="E46">
+        <v>0.6722782194515518</v>
+      </c>
+      <c r="F46">
+        <v>0.8243395137388684</v>
+      </c>
+      <c r="G46">
+        <v>0.7328797000708547</v>
+      </c>
+      <c r="H46">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="I46">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="J46">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="K46">
+        <v>0.9076672107987898</v>
+      </c>
+      <c r="L46">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="M46">
+        <v>0.8902573673365534</v>
+      </c>
+      <c r="N46">
+        <v>0.8770092107639516</v>
+      </c>
+      <c r="O46">
+        <v>0.5640373197625106</v>
+      </c>
+      <c r="P46">
+        <v>0.7992788461538461</v>
+      </c>
+      <c r="Q46">
+        <v>0.6613625062158129</v>
+      </c>
+      <c r="R46">
+        <v>0.8865492829914685</v>
+      </c>
+      <c r="S46">
+        <v>0.9678983833718244</v>
+      </c>
+      <c r="T46">
+        <v>0.8960872354073124</v>
+      </c>
+      <c r="U46">
+        <v>0.930609525924281</v>
+      </c>
+      <c r="V46">
+        <v>0.9535305863133055</v>
+      </c>
+      <c r="W46">
+        <v>0.5353535353535354</v>
+      </c>
+      <c r="X46">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="Y46">
+        <v>0.6235294117647059</v>
+      </c>
+      <c r="Z46">
+        <v>0.9734979125068071</v>
+      </c>
+      <c r="AA46">
+        <v>0.6656050955414012</v>
+      </c>
+      <c r="AB46">
+        <v>0.836</v>
+      </c>
+      <c r="AC46">
+        <v>0.7411347517730497</v>
+      </c>
+      <c r="AD46">
+        <v>0.9493555999273915</v>
+      </c>
+      <c r="AE46">
+        <v>0.5202558635394456</v>
+      </c>
+      <c r="AF46">
+        <v>0.8187919463087249</v>
+      </c>
+      <c r="AG46">
+        <v>0.636245110821382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <v>0.8903612270829552</v>
+      </c>
+      <c r="E47">
+        <v>0.6910529404380575</v>
+      </c>
+      <c r="F47">
+        <v>0.8123040359587819</v>
+      </c>
+      <c r="G47">
+        <v>0.7416612742082602</v>
+      </c>
+      <c r="H47">
+        <v>0.8903612270829552</v>
+      </c>
+      <c r="I47">
+        <v>0.8903612270829552</v>
+      </c>
+      <c r="J47">
+        <v>0.8903612270829552</v>
+      </c>
+      <c r="K47">
+        <v>0.9087331399016559</v>
+      </c>
+      <c r="L47">
+        <v>0.8903612270829552</v>
+      </c>
+      <c r="M47">
+        <v>0.8968263120395783</v>
+      </c>
+      <c r="N47">
+        <v>0.8860187861271677</v>
+      </c>
+      <c r="O47">
+        <v>0.5917808219178082</v>
+      </c>
+      <c r="P47">
+        <v>0.7788461538461539</v>
+      </c>
+      <c r="Q47">
+        <v>0.6725480020757654</v>
+      </c>
+      <c r="R47">
+        <v>0.8952622980577237</v>
+      </c>
+      <c r="S47">
+        <v>0.9644313547802447</v>
+      </c>
+      <c r="T47">
+        <v>0.9101988454137268</v>
+      </c>
+      <c r="U47">
+        <v>0.9365306346936531</v>
+      </c>
+      <c r="V47">
+        <v>0.9558903612270829</v>
+      </c>
+      <c r="W47">
+        <v>0.5571030640668524</v>
+      </c>
+      <c r="X47">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="Y47">
+        <v>0.6220839813374806</v>
+      </c>
+      <c r="Z47">
+        <v>0.9747685605373025</v>
+      </c>
+      <c r="AA47">
+        <v>0.6868686868686869</v>
+      </c>
+      <c r="AB47">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="AC47">
+        <v>0.7458866544789763</v>
+      </c>
+      <c r="AD47">
+        <v>0.954801234343801</v>
+      </c>
+      <c r="AE47">
+        <v>0.5558086560364465</v>
+      </c>
+      <c r="AF47">
+        <v>0.8187919463087249</v>
+      </c>
+      <c r="AG47">
+        <v>0.6621438263229308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>0.8876384098747504</v>
+      </c>
+      <c r="E48">
+        <v>0.6809296035052611</v>
+      </c>
+      <c r="F48">
+        <v>0.8306959198498451</v>
+      </c>
+      <c r="G48">
+        <v>0.7421928752411868</v>
+      </c>
+      <c r="H48">
+        <v>0.8876384098747504</v>
+      </c>
+      <c r="I48">
+        <v>0.8876384098747504</v>
+      </c>
+      <c r="J48">
+        <v>0.8876384098747504</v>
+      </c>
+      <c r="K48">
+        <v>0.9101191259364398</v>
+      </c>
+      <c r="L48">
+        <v>0.8876384098747504</v>
+      </c>
+      <c r="M48">
+        <v>0.8951811133585827</v>
+      </c>
+      <c r="N48">
+        <v>0.883788180010844</v>
+      </c>
+      <c r="O48">
+        <v>0.5821025195482189</v>
+      </c>
+      <c r="P48">
+        <v>0.8052884615384616</v>
+      </c>
+      <c r="Q48">
+        <v>0.6757438224911749</v>
+      </c>
+      <c r="R48">
+        <v>0.8919949174078781</v>
+      </c>
+      <c r="S48">
+        <v>0.9683340982101881</v>
+      </c>
+      <c r="T48">
+        <v>0.9022877913192218</v>
+      </c>
+      <c r="U48">
+        <v>0.9341449916989485</v>
+      </c>
+      <c r="V48">
+        <v>0.9560718823742966</v>
+      </c>
+      <c r="W48">
+        <v>0.553030303030303</v>
+      </c>
+      <c r="X48">
+        <v>0.7711267605633803</v>
+      </c>
+      <c r="Y48">
+        <v>0.6441176470588235</v>
+      </c>
+      <c r="Z48">
+        <v>0.9707750952986023</v>
+      </c>
+      <c r="AA48">
+        <v>0.6336336336336337</v>
+      </c>
+      <c r="AB48">
+        <v>0.844</v>
+      </c>
+      <c r="AC48">
+        <v>0.7238421955403088</v>
+      </c>
+      <c r="AD48">
+        <v>0.9564349246687239</v>
+      </c>
+      <c r="AE48">
+        <v>0.5687203791469194</v>
+      </c>
+      <c r="AF48">
+        <v>0.8053691275167785</v>
+      </c>
+      <c r="AG48">
+        <v>0.6666666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="E49">
+        <v>0.6869148943765973</v>
+      </c>
+      <c r="F49">
+        <v>0.8382789144618122</v>
+      </c>
+      <c r="G49">
+        <v>0.7477531690392472</v>
+      </c>
+      <c r="H49">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="I49">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="J49">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="K49">
+        <v>0.9124628038649486</v>
+      </c>
+      <c r="L49">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="M49">
+        <v>0.8968341622659201</v>
+      </c>
+      <c r="N49">
+        <v>0.8857349484722473</v>
+      </c>
+      <c r="O49">
+        <v>0.5863557858376511</v>
+      </c>
+      <c r="P49">
+        <v>0.8161057692307693</v>
+      </c>
+      <c r="Q49">
+        <v>0.6824120603015076</v>
+      </c>
+      <c r="R49">
+        <v>0.8932655654383735</v>
+      </c>
+      <c r="S49">
+        <v>0.9698919788554355</v>
+      </c>
+      <c r="T49">
+        <v>0.9022877913192218</v>
+      </c>
+      <c r="U49">
+        <v>0.9348692955250333</v>
+      </c>
+      <c r="V49">
+        <v>0.9606099110546379</v>
+      </c>
+      <c r="W49">
+        <v>0.5938375350140056</v>
+      </c>
+      <c r="X49">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="Y49">
+        <v>0.6614664586583463</v>
+      </c>
+      <c r="Z49">
+        <v>0.9718642221818842</v>
+      </c>
+      <c r="AA49">
+        <v>0.6435045317220544</v>
+      </c>
+      <c r="AB49">
+        <v>0.852</v>
+      </c>
+      <c r="AC49">
+        <v>0.7332185886402754</v>
+      </c>
+      <c r="AD49">
+        <v>0.9528045017244509</v>
+      </c>
+      <c r="AE49">
+        <v>0.5404255319148936</v>
+      </c>
+      <c r="AF49">
+        <v>0.8523489932885906</v>
+      </c>
+      <c r="AG49">
+        <v>0.6614583333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="E50">
+        <v>0.6864260566167302</v>
+      </c>
+      <c r="F50">
+        <v>0.8278196309861702</v>
+      </c>
+      <c r="G50">
+        <v>0.7441780389021047</v>
+      </c>
+      <c r="H50">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="I50">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="J50">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="K50">
+        <v>0.9107494381883807</v>
+      </c>
+      <c r="L50">
+        <v>0.8892721001996733</v>
+      </c>
+      <c r="M50">
+        <v>0.8964987059874822</v>
+      </c>
+      <c r="N50">
+        <v>0.8850948509485095</v>
+      </c>
+      <c r="O50">
+        <v>0.5862676056338029</v>
+      </c>
+      <c r="P50">
+        <v>0.8004807692307693</v>
+      </c>
+      <c r="Q50">
+        <v>0.676829268292683</v>
+      </c>
+      <c r="R50">
+        <v>0.8939916500272281</v>
+      </c>
+      <c r="S50">
+        <v>0.967985364738166</v>
+      </c>
+      <c r="T50">
+        <v>0.9050673508659397</v>
+      </c>
+      <c r="U50">
+        <v>0.9354696132596685</v>
+      </c>
+      <c r="V50">
+        <v>0.9582501361408604</v>
+      </c>
+      <c r="W50">
+        <v>0.5754189944134078</v>
+      </c>
+      <c r="X50">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="Y50">
+        <v>0.6417445482866044</v>
+      </c>
+      <c r="Z50">
+        <v>0.9733163913595934</v>
+      </c>
+      <c r="AA50">
+        <v>0.6594427244582043</v>
+      </c>
+      <c r="AB50">
+        <v>0.852</v>
+      </c>
+      <c r="AC50">
+        <v>0.7434554973821988</v>
+      </c>
+      <c r="AD50">
+        <v>0.9529860228716646</v>
+      </c>
+      <c r="AE50">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="AF50">
+        <v>0.8288590604026845</v>
+      </c>
+      <c r="AG50">
+        <v>0.6560424966799469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="E51">
+        <v>0.6636696344609978</v>
+      </c>
+      <c r="F51">
+        <v>0.8304777725478421</v>
+      </c>
+      <c r="G51">
+        <v>0.7296775924454051</v>
+      </c>
+      <c r="H51">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="I51">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="J51">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="K51">
+        <v>0.9082483663055306</v>
+      </c>
+      <c r="L51">
+        <v>0.8814666908694863</v>
+      </c>
+      <c r="M51">
+        <v>0.890185713758012</v>
+      </c>
+      <c r="N51">
+        <v>0.8766925437804658</v>
+      </c>
+      <c r="O51">
+        <v>0.5623430962343097</v>
+      </c>
+      <c r="P51">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="Q51">
+        <v>0.6630488406512087</v>
+      </c>
+      <c r="R51">
+        <v>0.8869123252858958</v>
+      </c>
+      <c r="S51">
+        <v>0.9698655540101994</v>
+      </c>
+      <c r="T51">
+        <v>0.8945905494975411</v>
+      </c>
+      <c r="U51">
+        <v>0.9307084862640419</v>
+      </c>
+      <c r="V51">
+        <v>0.9540751497549464</v>
+      </c>
+      <c r="W51">
+        <v>0.5402597402597402</v>
+      </c>
+      <c r="X51">
+        <v>0.7323943661971831</v>
+      </c>
+      <c r="Y51">
+        <v>0.6218236173393124</v>
+      </c>
+      <c r="Z51">
+        <v>0.9633327282628427</v>
+      </c>
+      <c r="AA51">
+        <v>0.5631578947368421</v>
+      </c>
+      <c r="AB51">
+        <v>0.856</v>
+      </c>
+      <c r="AC51">
+        <v>0.6793650793650793</v>
+      </c>
+      <c r="AD51">
+        <v>0.9586131784352877</v>
+      </c>
+      <c r="AE51">
+        <v>0.5813953488372093</v>
+      </c>
+      <c r="AF51">
+        <v>0.8389261744966443</v>
+      </c>
+      <c r="AG51">
+        <v>0.6868131868131869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>0.8948992557632964</v>
+      </c>
+      <c r="E52">
+        <v>0.6966636292593053</v>
+      </c>
+      <c r="F52">
+        <v>0.8180724091663154</v>
+      </c>
+      <c r="G52">
+        <v>0.7471521548140768</v>
+      </c>
+      <c r="H52">
+        <v>0.8948992557632964</v>
+      </c>
+      <c r="I52">
+        <v>0.8948992557632964</v>
+      </c>
+      <c r="J52">
+        <v>0.8948992557632964</v>
+      </c>
+      <c r="K52">
+        <v>0.9119690830223386</v>
+      </c>
+      <c r="L52">
+        <v>0.8948992557632964</v>
+      </c>
+      <c r="M52">
+        <v>0.9007501760921951</v>
+      </c>
+      <c r="N52">
+        <v>0.8900523560209425</v>
+      </c>
+      <c r="O52">
+        <v>0.6027649769585254</v>
+      </c>
+      <c r="P52">
+        <v>0.7860576923076923</v>
+      </c>
+      <c r="Q52">
+        <v>0.6823161189358372</v>
+      </c>
+      <c r="R52">
+        <v>0.900344890179706</v>
+      </c>
+      <c r="S52">
+        <v>0.9665461121157324</v>
+      </c>
+      <c r="T52">
+        <v>0.9142612785973915</v>
+      </c>
+      <c r="U52">
+        <v>0.9396769585759807</v>
+      </c>
+      <c r="V52">
+        <v>0.9626066436739881</v>
+      </c>
+      <c r="W52">
+        <v>0.6203703703703703</v>
+      </c>
+      <c r="X52">
+        <v>0.7077464788732394</v>
+      </c>
+      <c r="Y52">
+        <v>0.6611842105263158</v>
+      </c>
+      <c r="Z52">
+        <v>0.9696859684153204</v>
+      </c>
+      <c r="AA52">
+        <v>0.6292834890965732</v>
+      </c>
+      <c r="AB52">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="AC52">
+        <v>0.7075306479859894</v>
+      </c>
+      <c r="AD52">
+        <v>0.9571610092575785</v>
+      </c>
+      <c r="AE52">
+        <v>0.5704545454545454</v>
+      </c>
+      <c r="AF52">
+        <v>0.8422818791946308</v>
+      </c>
+      <c r="AG52">
+        <v>0.6802168021680216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53">
+        <v>0.8832819023416228</v>
+      </c>
+      <c r="E53">
+        <v>0.6755483450488882</v>
+      </c>
+      <c r="F53">
+        <v>0.827003790140354</v>
+      </c>
+      <c r="G53">
+        <v>0.7343774285999447</v>
+      </c>
+      <c r="H53">
+        <v>0.8832819023416228</v>
+      </c>
+      <c r="I53">
+        <v>0.8832819023416228</v>
+      </c>
+      <c r="J53">
+        <v>0.8832819023416228</v>
+      </c>
+      <c r="K53">
+        <v>0.909613612968262</v>
+      </c>
+      <c r="L53">
+        <v>0.8832819023416228</v>
+      </c>
+      <c r="M53">
+        <v>0.8918445720901432</v>
+      </c>
+      <c r="N53">
+        <v>0.8786565547128927</v>
+      </c>
+      <c r="O53">
+        <v>0.5679117147707979</v>
+      </c>
+      <c r="P53">
+        <v>0.8040865384615384</v>
+      </c>
+      <c r="Q53">
+        <v>0.6656716417910448</v>
+      </c>
+      <c r="R53">
+        <v>0.8885460156108187</v>
+      </c>
+      <c r="S53">
+        <v>0.9690602632186562</v>
+      </c>
+      <c r="T53">
+        <v>0.8973701090442592</v>
+      </c>
+      <c r="U53">
+        <v>0.9318383658969805</v>
+      </c>
+      <c r="V53">
+        <v>0.9627881648212017</v>
+      </c>
+      <c r="W53">
+        <v>0.6179104477611941</v>
+      </c>
+      <c r="X53">
         <v>0.7288732394366197</v>
       </c>
-      <c r="U19">
-        <v>0.5617367706919946</v>
-      </c>
-      <c r="V19">
-        <v>0.9577055726992194</v>
-      </c>
-      <c r="W19">
-        <v>0.5217391304347826</v>
-      </c>
-      <c r="X19">
+      <c r="Y53">
+        <v>0.6688206785137318</v>
+      </c>
+      <c r="Z53">
+        <v>0.9675077146487566</v>
+      </c>
+      <c r="AA53">
+        <v>0.6053412462908012</v>
+      </c>
+      <c r="AB53">
         <v>0.8159999999999999</v>
       </c>
-      <c r="Y19">
-        <v>0.6365054602184087</v>
-      </c>
-      <c r="Z19">
-        <v>0.9482664730441096</v>
-      </c>
-      <c r="AA19">
-        <v>0.5146067415730337</v>
-      </c>
-      <c r="AB19">
-        <v>0.7684563758389261</v>
-      </c>
-      <c r="AC19">
-        <v>0.6164199192462987</v>
+      <c r="AC53">
+        <v>0.6950596252129473</v>
+      </c>
+      <c r="AD53">
+        <v>0.9477219096024687</v>
+      </c>
+      <c r="AE53">
+        <v>0.5098814229249012</v>
+      </c>
+      <c r="AF53">
+        <v>0.8657718120805369</v>
+      </c>
+      <c r="AG53">
+        <v>0.6417910447761195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>0.888364494463605</v>
+      </c>
+      <c r="E54">
+        <v>0.6854147386506988</v>
+      </c>
+      <c r="F54">
+        <v>0.8276935434494166</v>
+      </c>
+      <c r="G54">
+        <v>0.7425942563582117</v>
+      </c>
+      <c r="H54">
+        <v>0.888364494463605</v>
+      </c>
+      <c r="I54">
+        <v>0.888364494463605</v>
+      </c>
+      <c r="J54">
+        <v>0.888364494463605</v>
+      </c>
+      <c r="K54">
+        <v>0.9110509883048596</v>
+      </c>
+      <c r="L54">
+        <v>0.888364494463605</v>
+      </c>
+      <c r="M54">
+        <v>0.8959121521130321</v>
+      </c>
+      <c r="N54">
+        <v>0.883872132923966</v>
+      </c>
+      <c r="O54">
+        <v>0.5825327510917031</v>
+      </c>
+      <c r="P54">
+        <v>0.8016826923076923</v>
+      </c>
+      <c r="Q54">
+        <v>0.674759736975215</v>
+      </c>
+      <c r="R54">
+        <v>0.8934470865855872</v>
+      </c>
+      <c r="S54">
+        <v>0.9686067827681026</v>
+      </c>
+      <c r="T54">
+        <v>0.9037844772289929</v>
+      </c>
+      <c r="U54">
+        <v>0.9350735538104192</v>
+      </c>
+      <c r="V54">
+        <v>0.9602468687602106</v>
+      </c>
+      <c r="W54">
+        <v>0.5936599423631124</v>
+      </c>
+      <c r="X54">
+        <v>0.7253521126760564</v>
+      </c>
+      <c r="Y54">
+        <v>0.6529318541996831</v>
+      </c>
+      <c r="Z54">
+        <v>0.9722272644763115</v>
+      </c>
+      <c r="AA54">
+        <v>0.6510903426791277</v>
+      </c>
+      <c r="AB54">
+        <v>0.836</v>
+      </c>
+      <c r="AC54">
+        <v>0.7320490367775832</v>
+      </c>
+      <c r="AD54">
+        <v>0.9508077691051008</v>
+      </c>
+      <c r="AE54">
+        <v>0.5283018867924528</v>
+      </c>
+      <c r="AF54">
+        <v>0.8456375838926175</v>
+      </c>
+      <c r="AG54">
+        <v>0.6503225806451614</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>0.8807406062806317</v>
+      </c>
+      <c r="E55">
+        <v>0.6677391195436009</v>
+      </c>
+      <c r="F55">
+        <v>0.8363170049797705</v>
+      </c>
+      <c r="G55">
+        <v>0.733858243078821</v>
+      </c>
+      <c r="H55">
+        <v>0.8807406062806317</v>
+      </c>
+      <c r="I55">
+        <v>0.8807406062806317</v>
+      </c>
+      <c r="J55">
+        <v>0.8807406062806317</v>
+      </c>
+      <c r="K55">
+        <v>0.9092521366999223</v>
+      </c>
+      <c r="L55">
+        <v>0.8807406062806317</v>
+      </c>
+      <c r="M55">
+        <v>0.8899334758535491</v>
+      </c>
+      <c r="N55">
+        <v>0.8766034327009937</v>
+      </c>
+      <c r="O55">
+        <v>0.5615194054500413</v>
+      </c>
+      <c r="P55">
+        <v>0.8173076923076923</v>
+      </c>
+      <c r="Q55">
+        <v>0.6656877141458639</v>
+      </c>
+      <c r="R55">
+        <v>0.8854601561081866</v>
+      </c>
+      <c r="S55">
+        <v>0.9706840390879479</v>
+      </c>
+      <c r="T55">
+        <v>0.8920248022236477</v>
+      </c>
+      <c r="U55">
+        <v>0.9296935933147632</v>
+      </c>
+      <c r="V55">
+        <v>0.9562534035215102</v>
+      </c>
+      <c r="W55">
+        <v>0.55470737913486</v>
+      </c>
+      <c r="X55">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="Y55">
+        <v>0.6440177252584933</v>
+      </c>
+      <c r="Z55">
+        <v>0.9693229261208931</v>
+      </c>
+      <c r="AA55">
+        <v>0.6194690265486725</v>
+      </c>
+      <c r="AB55">
+        <v>0.84</v>
+      </c>
+      <c r="AC55">
+        <v>0.7130730050933786</v>
+      </c>
+      <c r="AD55">
+        <v>0.9504447268106735</v>
+      </c>
+      <c r="AE55">
+        <v>0.5260960334029228</v>
+      </c>
+      <c r="AF55">
+        <v>0.8456375838926175</v>
+      </c>
+      <c r="AG55">
+        <v>0.6486486486486486</v>
       </c>
     </row>
   </sheetData>
